--- a/oil_month.xlsx
+++ b/oil_month.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markio/oae-var/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE7377E-968C-FA4B-B694-E6244BE32A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Monthly" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Monthly"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="148">
-  <si>
-    <t/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="142">
+  <si>
+    <t>year</t>
   </si>
   <si>
     <t xml:space="preserve">ก.พ. 2566 </t>
@@ -446,46 +440,31 @@
   </si>
   <si>
     <t xml:space="preserve">   น้ำตาลทรายขาว 1 กิโลกรัม (ราคาขายปลีก)</t>
-  </si>
-  <si>
-    <t>ที่มา:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. บริษัท ปตท. จำกัด ( มหาชน ) </t>
-  </si>
-  <si>
-    <t>2. สำนักดัชนีเศรษฐกิจการค้า กระทรวงพาณิชย์</t>
-  </si>
-  <si>
-    <t>3. สำนักงานนโยบายและแผนพลังงาน กระทรวงพลังงาน</t>
-  </si>
-  <si>
-    <t>หมายเหตุ:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/ ตั้งแต่การเผยแพร่ข้อมูลเดือนมิถุนายน 2553 เป็นต้นไป  ธปท.ได้เปลี่ยนแหล่งที่มาของข้อมูลน้ำมันก๊าด และน้ำมันเตา เป็นสำนักงานนโยบาย และแผนพลังงาน  กระทรวงพลังงาน โดยมีข้อมูลย้อนหลังถึงเดือนมกราคม 2546 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft Sans Serif"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft Sans Serif"/>
       <family val="2"/>
     </font>
@@ -499,11 +478,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
+        <fgColor rgb="FFccffff"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -512,13 +491,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FFc6c6c6"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,7 +547,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,53 +556,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -593,10 +612,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -623,116 +642,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -744,1182 +729,1091 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DH23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:DH16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A1:XFD5"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="112" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" style="10" width="4.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="27.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="42" max="42" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="43" max="43" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="44" max="44" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="45" max="45" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="46" max="46" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="47" max="47" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="48" max="48" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="49" max="49" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="50" max="50" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="51" max="51" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="52" max="52" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="53" max="53" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="54" max="54" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="55" max="55" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="56" max="56" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="57" max="57" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="58" max="58" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="59" max="59" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="60" max="60" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="61" max="61" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="62" max="62" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="63" max="63" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="64" max="64" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="65" max="65" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="66" max="66" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="67" max="67" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="68" max="68" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="69" max="69" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="70" max="70" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="71" max="71" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="72" max="72" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="73" max="73" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="74" max="74" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="75" max="75" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="76" max="76" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="77" max="77" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="78" max="78" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="79" max="79" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="80" max="80" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="81" max="81" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="82" max="82" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="83" max="83" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="84" max="84" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="85" max="85" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="86" max="86" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="87" max="87" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="88" max="88" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="89" max="89" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="90" max="90" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="91" max="91" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="92" max="92" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="93" max="93" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="94" max="94" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="95" max="95" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="96" max="96" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="97" max="97" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="98" max="98" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="99" max="99" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="100" max="100" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="101" max="101" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="102" max="102" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="103" max="103" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="104" max="104" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="105" max="105" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="106" max="106" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="107" max="107" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="108" max="108" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="109" max="109" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="110" max="110" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="111" max="111" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="112" max="112" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BA1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BC1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BD1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BF1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BG1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BH1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BI1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BK1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BL1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BM1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BN1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BO1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BP1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BR1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BS1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BT1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BU1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BV1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BW1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BX1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BY1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CA1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CB1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CC1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CD1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CE1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CF1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CG1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CH1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CI1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CK1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CL1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CM1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CN1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CO1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CP1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CR1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CS1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CT1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="CU1" s="2" t="s">
+      <c r="CU1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="CV1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="CW1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="CX1" s="2" t="s">
+      <c r="CX1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="CY1" s="2" t="s">
+      <c r="CY1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="CZ1" s="2" t="s">
+      <c r="CZ1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="DA1" s="2" t="s">
+      <c r="DA1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="DB1" s="2" t="s">
+      <c r="DB1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="DC1" s="2" t="s">
+      <c r="DC1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="DD1" s="2" t="s">
+      <c r="DD1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="DE1" s="2" t="s">
+      <c r="DE1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="DF1" s="2" t="s">
+      <c r="DF1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="DG1" s="2" t="s">
+      <c r="DG1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="DH1" s="2" t="s">
+      <c r="DH1" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CS2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CT2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CV2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CW2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CX2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CY2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CZ2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DA2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DB2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DD2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DE2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DF2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DG2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DH2" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="6"/>
+      <c r="BM2" s="6"/>
+      <c r="BN2" s="6"/>
+      <c r="BO2" s="6"/>
+      <c r="BP2" s="6"/>
+      <c r="BQ2" s="6"/>
+      <c r="BR2" s="6"/>
+      <c r="BS2" s="6"/>
+      <c r="BT2" s="6"/>
+      <c r="BU2" s="6"/>
+      <c r="BV2" s="6"/>
+      <c r="BW2" s="6"/>
+      <c r="BX2" s="6"/>
+      <c r="BY2" s="6"/>
+      <c r="BZ2" s="6"/>
+      <c r="CA2" s="6"/>
+      <c r="CB2" s="6"/>
+      <c r="CC2" s="6"/>
+      <c r="CD2" s="6"/>
+      <c r="CE2" s="6"/>
+      <c r="CF2" s="6"/>
+      <c r="CG2" s="6"/>
+      <c r="CH2" s="6"/>
+      <c r="CI2" s="6"/>
+      <c r="CJ2" s="6"/>
+      <c r="CK2" s="6"/>
+      <c r="CL2" s="6"/>
+      <c r="CM2" s="6"/>
+      <c r="CN2" s="6"/>
+      <c r="CO2" s="6"/>
+      <c r="CP2" s="6"/>
+      <c r="CQ2" s="6"/>
+      <c r="CR2" s="6"/>
+      <c r="CS2" s="6"/>
+      <c r="CT2" s="6"/>
+      <c r="CU2" s="6"/>
+      <c r="CV2" s="6"/>
+      <c r="CW2" s="6"/>
+      <c r="CX2" s="6"/>
+      <c r="CY2" s="6"/>
+      <c r="CZ2" s="6"/>
+      <c r="DA2" s="6"/>
+      <c r="DB2" s="6"/>
+      <c r="DC2" s="6"/>
+      <c r="DD2" s="6"/>
+      <c r="DE2" s="6"/>
+      <c r="DF2" s="6"/>
+      <c r="DG2" s="6"/>
+      <c r="DH2" s="6"/>
     </row>
-    <row r="3" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="A3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>43.9</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>42.95</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>41.98</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>43.19</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>42.57</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>42.64</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>44.76</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>47.46</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>52.19</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>49.51</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <v>46.21</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="6">
         <v>46.51</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="6">
         <v>42.91</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="6">
         <v>39.99</v>
       </c>
-      <c r="Q3" s="7">
-        <v>38.049999999999997</v>
-      </c>
-      <c r="R3" s="7">
-        <v>39.409999999999997</v>
-      </c>
-      <c r="S3" s="7">
+      <c r="Q3" s="6">
+        <v>38.05</v>
+      </c>
+      <c r="R3" s="6">
+        <v>39.41</v>
+      </c>
+      <c r="S3" s="6">
         <v>38.93</v>
       </c>
-      <c r="T3" s="7">
-        <v>37.159999999999997</v>
-      </c>
-      <c r="U3" s="7">
-        <v>36.869999999999997</v>
-      </c>
-      <c r="V3" s="7">
+      <c r="T3" s="6">
+        <v>37.16</v>
+      </c>
+      <c r="U3" s="6">
+        <v>36.87</v>
+      </c>
+      <c r="V3" s="6">
         <v>36.92</v>
       </c>
-      <c r="W3" s="7">
-        <v>35.729999999999997</v>
-      </c>
-      <c r="X3" s="7">
-        <v>34.979999999999997</v>
-      </c>
-      <c r="Y3" s="7">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="Z3" s="7">
-        <v>33.950000000000003</v>
-      </c>
-      <c r="AA3" s="7">
+      <c r="W3" s="6">
+        <v>35.73</v>
+      </c>
+      <c r="X3" s="6">
+        <v>34.98</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>34.2</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>33.95</v>
+      </c>
+      <c r="AA3" s="6">
         <v>32.82</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="AB3" s="6">
         <v>31.25</v>
       </c>
-      <c r="AC3" s="7">
+      <c r="AC3" s="6">
         <v>30.04</v>
       </c>
-      <c r="AD3" s="7">
+      <c r="AD3" s="6">
         <v>28.99</v>
       </c>
-      <c r="AE3" s="7">
+      <c r="AE3" s="6">
         <v>29.13</v>
       </c>
-      <c r="AF3" s="7">
+      <c r="AF3" s="6">
         <v>29.09</v>
       </c>
-      <c r="AG3" s="7">
+      <c r="AG3" s="6">
         <v>29.21</v>
       </c>
-      <c r="AH3" s="7">
+      <c r="AH3" s="6">
         <v>29.06</v>
       </c>
-      <c r="AI3" s="7">
+      <c r="AI3" s="6">
         <v>28.76</v>
       </c>
-      <c r="AJ3" s="7">
+      <c r="AJ3" s="6">
         <v>26.56</v>
       </c>
-      <c r="AK3" s="7">
+      <c r="AK3" s="6">
         <v>24.98</v>
       </c>
-      <c r="AL3" s="7">
+      <c r="AL3" s="6">
         <v>29.24</v>
       </c>
-      <c r="AM3" s="7">
+      <c r="AM3" s="6">
         <v>33.19</v>
       </c>
-      <c r="AN3" s="7">
+      <c r="AN3" s="6">
         <v>33.79</v>
       </c>
-      <c r="AO3" s="7">
+      <c r="AO3" s="6">
         <v>34.26</v>
       </c>
-      <c r="AP3" s="7">
+      <c r="AP3" s="6">
         <v>34.43</v>
       </c>
-      <c r="AQ3" s="7">
+      <c r="AQ3" s="6">
         <v>34.35</v>
       </c>
-      <c r="AR3" s="7">
-        <v>34.979999999999997</v>
-      </c>
-      <c r="AS3" s="7">
+      <c r="AR3" s="6">
+        <v>34.98</v>
+      </c>
+      <c r="AS3" s="6">
         <v>34.93</v>
       </c>
-      <c r="AT3" s="7">
+      <c r="AT3" s="6">
         <v>35.46</v>
       </c>
-      <c r="AU3" s="7">
+      <c r="AU3" s="6">
         <v>34.9</v>
       </c>
-      <c r="AV3" s="7">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="AW3" s="7">
-        <v>36.979999999999997</v>
-      </c>
-      <c r="AX3" s="7">
+      <c r="AV3" s="6">
+        <v>36.8</v>
+      </c>
+      <c r="AW3" s="6">
+        <v>36.98</v>
+      </c>
+      <c r="AX3" s="6">
         <v>35.93</v>
       </c>
-      <c r="AY3" s="7">
-        <v>34.369999999999997</v>
-      </c>
-      <c r="AZ3" s="7">
+      <c r="AY3" s="6">
+        <v>34.37</v>
+      </c>
+      <c r="AZ3" s="6">
         <v>33.71</v>
       </c>
-      <c r="BA3" s="7">
-        <v>34.520000000000003</v>
-      </c>
-      <c r="BB3" s="7">
+      <c r="BA3" s="6">
+        <v>34.52</v>
+      </c>
+      <c r="BB3" s="6">
         <v>36.19</v>
       </c>
-      <c r="BC3" s="7">
+      <c r="BC3" s="6">
         <v>37.92</v>
       </c>
-      <c r="BD3" s="7">
-        <v>37.869999999999997</v>
-      </c>
-      <c r="BE3" s="7">
+      <c r="BD3" s="6">
+        <v>37.87</v>
+      </c>
+      <c r="BE3" s="6">
         <v>37</v>
       </c>
-      <c r="BF3" s="7">
-        <v>36.619999999999997</v>
-      </c>
-      <c r="BG3" s="7">
+      <c r="BF3" s="6">
+        <v>36.62</v>
+      </c>
+      <c r="BG3" s="6">
         <v>36.36</v>
       </c>
-      <c r="BH3" s="7">
+      <c r="BH3" s="6">
         <v>36.51</v>
       </c>
-      <c r="BI3" s="7">
+      <c r="BI3" s="6">
         <v>35.32</v>
       </c>
-      <c r="BJ3" s="7">
+      <c r="BJ3" s="6">
         <v>34.78</v>
       </c>
-      <c r="BK3" s="7">
-        <v>34.880000000000003</v>
-      </c>
-      <c r="BL3" s="7">
+      <c r="BK3" s="6">
+        <v>34.88</v>
+      </c>
+      <c r="BL3" s="6">
         <v>35.29</v>
       </c>
-      <c r="BM3" s="7">
+      <c r="BM3" s="6">
         <v>35.11</v>
       </c>
-      <c r="BN3" s="7">
+      <c r="BN3" s="6">
         <v>35.18</v>
       </c>
-      <c r="BO3" s="7">
+      <c r="BO3" s="6">
         <v>34.35</v>
       </c>
-      <c r="BP3" s="7">
+      <c r="BP3" s="6">
         <v>34.53</v>
       </c>
-      <c r="BQ3" s="7">
-        <v>33.770000000000003</v>
-      </c>
-      <c r="BR3" s="7">
+      <c r="BQ3" s="6">
+        <v>33.77</v>
+      </c>
+      <c r="BR3" s="6">
         <v>32.82</v>
       </c>
-      <c r="BS3" s="7">
+      <c r="BS3" s="6">
         <v>32.93</v>
       </c>
-      <c r="BT3" s="7">
-        <v>33.979999999999997</v>
-      </c>
-      <c r="BU3" s="7">
+      <c r="BT3" s="6">
+        <v>33.98</v>
+      </c>
+      <c r="BU3" s="6">
         <v>34.47</v>
       </c>
-      <c r="BV3" s="7">
-        <v>34.049999999999997</v>
-      </c>
-      <c r="BW3" s="7">
+      <c r="BV3" s="6">
+        <v>34.05</v>
+      </c>
+      <c r="BW3" s="6">
         <v>35.21</v>
       </c>
-      <c r="BX3" s="7">
+      <c r="BX3" s="6">
         <v>34.74</v>
       </c>
-      <c r="BY3" s="7">
-        <v>33.979999999999997</v>
-      </c>
-      <c r="BZ3" s="7">
+      <c r="BY3" s="6">
+        <v>33.98</v>
+      </c>
+      <c r="BZ3" s="6">
         <v>32.57</v>
       </c>
-      <c r="CA3" s="7">
+      <c r="CA3" s="6">
         <v>32.82</v>
       </c>
-      <c r="CB3" s="7">
+      <c r="CB3" s="6">
         <v>31.96</v>
       </c>
-      <c r="CC3" s="7">
+      <c r="CC3" s="6">
         <v>30.86</v>
       </c>
-      <c r="CD3" s="7">
+      <c r="CD3" s="6">
         <v>30.99</v>
       </c>
-      <c r="CE3" s="7">
+      <c r="CE3" s="6">
         <v>32.01</v>
       </c>
-      <c r="CF3" s="7">
-        <v>32.130000000000003</v>
-      </c>
-      <c r="CG3" s="7">
+      <c r="CF3" s="6">
+        <v>32.13</v>
+      </c>
+      <c r="CG3" s="6">
         <v>30.91</v>
       </c>
-      <c r="CH3" s="7">
+      <c r="CH3" s="6">
         <v>30.39</v>
       </c>
-      <c r="CI3" s="7">
+      <c r="CI3" s="6">
         <v>29.35</v>
       </c>
-      <c r="CJ3" s="7">
+      <c r="CJ3" s="6">
         <v>30.37</v>
       </c>
-      <c r="CK3" s="7">
+      <c r="CK3" s="6">
         <v>31.16</v>
       </c>
-      <c r="CL3" s="7">
+      <c r="CL3" s="6">
         <v>32.51</v>
       </c>
-      <c r="CM3" s="7">
-        <v>33.369999999999997</v>
-      </c>
-      <c r="CN3" s="7">
+      <c r="CM3" s="6">
+        <v>33.37</v>
+      </c>
+      <c r="CN3" s="6">
         <v>33.26</v>
       </c>
-      <c r="CO3" s="7">
+      <c r="CO3" s="6">
         <v>34.01</v>
       </c>
-      <c r="CP3" s="7">
+      <c r="CP3" s="6">
         <v>34.99</v>
       </c>
-      <c r="CQ3" s="7">
+      <c r="CQ3" s="6">
         <v>35.42</v>
       </c>
-      <c r="CR3" s="7">
+      <c r="CR3" s="6">
         <v>34.75</v>
       </c>
-      <c r="CS3" s="7">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="CT3" s="7">
-        <v>35.380000000000003</v>
-      </c>
-      <c r="CU3" s="7">
-        <v>35.090000000000003</v>
-      </c>
-      <c r="CV3" s="7">
+      <c r="CS3" s="6">
+        <v>33.7</v>
+      </c>
+      <c r="CT3" s="6">
+        <v>35.38</v>
+      </c>
+      <c r="CU3" s="6">
+        <v>35.09</v>
+      </c>
+      <c r="CV3" s="6">
         <v>35</v>
       </c>
-      <c r="CW3" s="7">
+      <c r="CW3" s="6">
         <v>38.51</v>
       </c>
-      <c r="CX3" s="7">
-        <v>40.770000000000003</v>
-      </c>
-      <c r="CY3" s="7">
+      <c r="CX3" s="6">
+        <v>40.77</v>
+      </c>
+      <c r="CY3" s="6">
         <v>43.81</v>
       </c>
-      <c r="CZ3" s="7">
+      <c r="CZ3" s="6">
         <v>44.86</v>
       </c>
-      <c r="DA3" s="7">
+      <c r="DA3" s="6">
         <v>48.37</v>
       </c>
-      <c r="DB3" s="7">
+      <c r="DB3" s="6">
         <v>48.75</v>
       </c>
-      <c r="DC3" s="7">
+      <c r="DC3" s="6">
         <v>48.8</v>
       </c>
-      <c r="DD3" s="7">
+      <c r="DD3" s="6">
         <v>48.99</v>
       </c>
-      <c r="DE3" s="7">
+      <c r="DE3" s="6">
         <v>48.41</v>
       </c>
-      <c r="DF3" s="7">
+      <c r="DF3" s="6">
         <v>48.05</v>
       </c>
-      <c r="DG3" s="7">
+      <c r="DG3" s="6">
         <v>48.05</v>
       </c>
-      <c r="DH3" s="7">
+      <c r="DH3" s="6">
         <v>48.22</v>
       </c>
     </row>
-    <row r="4" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>116</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -2253,687 +2147,687 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="A5" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="7">
-        <v>36.090000000000003</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="6">
+        <v>36.09</v>
+      </c>
+      <c r="D5" s="6">
         <v>35.54</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>34.57</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>35.78</v>
       </c>
-      <c r="G5" s="7">
-        <v>35.159999999999997</v>
-      </c>
-      <c r="H5" s="7">
-        <v>35.229999999999997</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="G5" s="6">
+        <v>35.16</v>
+      </c>
+      <c r="H5" s="6">
+        <v>35.23</v>
+      </c>
+      <c r="I5" s="6">
         <v>37.35</v>
       </c>
-      <c r="J5" s="7">
-        <v>40.049999999999997</v>
-      </c>
-      <c r="K5" s="7">
+      <c r="J5" s="6">
+        <v>40.05</v>
+      </c>
+      <c r="K5" s="6">
         <v>44.78</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <v>42.1</v>
       </c>
-      <c r="M5" s="7">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="N5" s="7">
+      <c r="M5" s="6">
+        <v>38.8</v>
+      </c>
+      <c r="N5" s="6">
         <v>39.1</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="6">
         <v>35.5</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="6">
         <v>32.58</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="6">
         <v>30.64</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="6">
         <v>32</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="6">
         <v>31.52</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="6">
         <v>29.75</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="6">
         <v>29.46</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="6">
         <v>29.51</v>
       </c>
-      <c r="W5" s="7">
+      <c r="W5" s="6">
         <v>28.32</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="6">
         <v>27.57</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Y5" s="6">
         <v>26.79</v>
       </c>
-      <c r="Z5" s="7">
+      <c r="Z5" s="6">
         <v>26.54</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AA5" s="6">
         <v>25.41</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AB5" s="6">
         <v>23.84</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AC5" s="6">
         <v>22.63</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AD5" s="6">
         <v>21.58</v>
       </c>
-      <c r="AE5" s="7">
+      <c r="AE5" s="6">
         <v>21.72</v>
       </c>
-      <c r="AF5" s="7">
+      <c r="AF5" s="6">
         <v>21.68</v>
       </c>
-      <c r="AG5" s="7">
+      <c r="AG5" s="6">
         <v>21.8</v>
       </c>
-      <c r="AH5" s="7">
+      <c r="AH5" s="6">
         <v>21.65</v>
       </c>
-      <c r="AI5" s="7">
+      <c r="AI5" s="6">
         <v>21.35</v>
       </c>
-      <c r="AJ5" s="7">
-        <v>19.149999999999999</v>
-      </c>
-      <c r="AK5" s="7">
+      <c r="AJ5" s="6">
+        <v>19.15</v>
+      </c>
+      <c r="AK5" s="6">
         <v>17.57</v>
       </c>
-      <c r="AL5" s="7">
+      <c r="AL5" s="6">
         <v>21.83</v>
       </c>
-      <c r="AM5" s="7">
+      <c r="AM5" s="6">
         <v>25.78</v>
       </c>
-      <c r="AN5" s="7">
+      <c r="AN5" s="6">
         <v>26.38</v>
       </c>
-      <c r="AO5" s="7">
+      <c r="AO5" s="6">
         <v>26.85</v>
       </c>
-      <c r="AP5" s="7">
+      <c r="AP5" s="6">
         <v>27.02</v>
       </c>
-      <c r="AQ5" s="7">
+      <c r="AQ5" s="6">
         <v>26.94</v>
       </c>
-      <c r="AR5" s="7">
+      <c r="AR5" s="6">
         <v>27.57</v>
       </c>
-      <c r="AS5" s="7">
+      <c r="AS5" s="6">
         <v>27.52</v>
       </c>
-      <c r="AT5" s="7">
+      <c r="AT5" s="6">
         <v>28.05</v>
       </c>
-      <c r="AU5" s="7">
+      <c r="AU5" s="6">
         <v>27.49</v>
       </c>
-      <c r="AV5" s="7">
+      <c r="AV5" s="6">
         <v>29.39</v>
       </c>
-      <c r="AW5" s="7">
+      <c r="AW5" s="6">
         <v>29.57</v>
       </c>
-      <c r="AX5" s="7">
+      <c r="AX5" s="6">
         <v>28.52</v>
       </c>
-      <c r="AY5" s="7">
+      <c r="AY5" s="6">
         <v>26.96</v>
       </c>
-      <c r="AZ5" s="7">
+      <c r="AZ5" s="6">
         <v>26.3</v>
       </c>
-      <c r="BA5" s="7">
+      <c r="BA5" s="6">
         <v>27.11</v>
       </c>
-      <c r="BB5" s="7">
+      <c r="BB5" s="6">
         <v>28.99</v>
       </c>
-      <c r="BC5" s="7">
+      <c r="BC5" s="6">
         <v>30.81</v>
       </c>
-      <c r="BD5" s="7">
+      <c r="BD5" s="6">
         <v>30.76</v>
       </c>
-      <c r="BE5" s="7">
+      <c r="BE5" s="6">
         <v>29.89</v>
       </c>
-      <c r="BF5" s="7">
+      <c r="BF5" s="6">
         <v>29.51</v>
       </c>
-      <c r="BG5" s="7">
+      <c r="BG5" s="6">
         <v>29.25</v>
       </c>
-      <c r="BH5" s="7">
+      <c r="BH5" s="6">
         <v>29.4</v>
       </c>
-      <c r="BI5" s="7">
+      <c r="BI5" s="6">
         <v>28.21</v>
       </c>
-      <c r="BJ5" s="7">
+      <c r="BJ5" s="6">
         <v>27.67</v>
       </c>
-      <c r="BK5" s="7">
+      <c r="BK5" s="6">
         <v>27.77</v>
       </c>
-      <c r="BL5" s="7">
+      <c r="BL5" s="6">
         <v>28.18</v>
       </c>
-      <c r="BM5" s="7">
+      <c r="BM5" s="6">
         <v>28</v>
       </c>
-      <c r="BN5" s="7">
+      <c r="BN5" s="6">
         <v>28.07</v>
       </c>
-      <c r="BO5" s="7">
+      <c r="BO5" s="6">
         <v>27.24</v>
       </c>
-      <c r="BP5" s="7">
+      <c r="BP5" s="6">
         <v>27.42</v>
       </c>
-      <c r="BQ5" s="7">
+      <c r="BQ5" s="6">
         <v>26.66</v>
       </c>
-      <c r="BR5" s="7">
+      <c r="BR5" s="6">
         <v>25.71</v>
       </c>
-      <c r="BS5" s="7">
+      <c r="BS5" s="6">
         <v>25.82</v>
       </c>
-      <c r="BT5" s="7">
+      <c r="BT5" s="6">
         <v>26.87</v>
       </c>
-      <c r="BU5" s="7">
+      <c r="BU5" s="6">
         <v>27.36</v>
       </c>
-      <c r="BV5" s="7">
+      <c r="BV5" s="6">
         <v>26.94</v>
       </c>
-      <c r="BW5" s="7">
+      <c r="BW5" s="6">
         <v>28.1</v>
       </c>
-      <c r="BX5" s="7">
+      <c r="BX5" s="6">
         <v>27.63</v>
       </c>
-      <c r="BY5" s="7">
+      <c r="BY5" s="6">
         <v>26.87</v>
       </c>
-      <c r="BZ5" s="7">
+      <c r="BZ5" s="6">
         <v>25.46</v>
       </c>
-      <c r="CA5" s="7">
+      <c r="CA5" s="6">
         <v>25.71</v>
       </c>
-      <c r="CB5" s="7">
+      <c r="CB5" s="6">
         <v>24.85</v>
       </c>
-      <c r="CC5" s="7">
+      <c r="CC5" s="6">
         <v>23.75</v>
       </c>
-      <c r="CD5" s="7">
+      <c r="CD5" s="6">
         <v>24.01</v>
       </c>
-      <c r="CE5" s="7">
+      <c r="CE5" s="6">
         <v>25.05</v>
       </c>
-      <c r="CF5" s="7">
+      <c r="CF5" s="6">
         <v>25.17</v>
       </c>
-      <c r="CG5" s="7">
+      <c r="CG5" s="6">
         <v>23.95</v>
       </c>
-      <c r="CH5" s="7">
+      <c r="CH5" s="6">
         <v>23.43</v>
       </c>
-      <c r="CI5" s="7">
+      <c r="CI5" s="6">
         <v>22.39</v>
       </c>
-      <c r="CJ5" s="7">
+      <c r="CJ5" s="6">
         <v>23.41</v>
       </c>
-      <c r="CK5" s="7">
+      <c r="CK5" s="6">
         <v>24.2</v>
       </c>
-      <c r="CL5" s="7">
+      <c r="CL5" s="6">
         <v>25.55</v>
       </c>
-      <c r="CM5" s="7">
+      <c r="CM5" s="6">
         <v>26.41</v>
       </c>
-      <c r="CN5" s="7">
+      <c r="CN5" s="6">
         <v>26.39</v>
       </c>
-      <c r="CO5" s="7">
+      <c r="CO5" s="6">
         <v>27.45</v>
       </c>
-      <c r="CP5" s="7">
+      <c r="CP5" s="6">
         <v>28.43</v>
       </c>
-      <c r="CQ5" s="7">
+      <c r="CQ5" s="6">
         <v>28.75</v>
       </c>
-      <c r="CR5" s="7">
+      <c r="CR5" s="6">
         <v>29.08</v>
       </c>
-      <c r="CS5" s="7">
+      <c r="CS5" s="6">
         <v>28.14</v>
       </c>
-      <c r="CT5" s="7">
+      <c r="CT5" s="6">
         <v>29.53</v>
       </c>
-      <c r="CU5" s="7">
+      <c r="CU5" s="6">
         <v>29.54</v>
       </c>
-      <c r="CV5" s="7">
+      <c r="CV5" s="6">
         <v>31.02</v>
       </c>
-      <c r="CW5" s="7">
-        <v>32.630000000000003</v>
-      </c>
-      <c r="CX5" s="7">
+      <c r="CW5" s="6">
+        <v>32.63</v>
+      </c>
+      <c r="CX5" s="6">
         <v>35</v>
       </c>
-      <c r="CY5" s="7">
+      <c r="CY5" s="6">
         <v>36.75</v>
       </c>
-      <c r="CZ5" s="7">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="DA5" s="7">
+      <c r="CZ5" s="6">
+        <v>37.8</v>
+      </c>
+      <c r="DA5" s="6">
         <v>39.78</v>
       </c>
-      <c r="DB5" s="7">
-        <v>40.619999999999997</v>
-      </c>
-      <c r="DC5" s="7">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="DD5" s="7">
+      <c r="DB5" s="6">
+        <v>40.62</v>
+      </c>
+      <c r="DC5" s="6">
+        <v>40.8</v>
+      </c>
+      <c r="DD5" s="6">
         <v>41.02</v>
       </c>
-      <c r="DE5" s="7">
+      <c r="DE5" s="6">
         <v>40.89</v>
       </c>
-      <c r="DF5" s="7">
+      <c r="DF5" s="6">
         <v>40.76</v>
       </c>
-      <c r="DG5" s="7">
+      <c r="DG5" s="6">
         <v>40.53</v>
       </c>
-      <c r="DH5" s="7">
-        <v>40.700000000000003</v>
+      <c r="DH5" s="6">
+        <v>40.7</v>
       </c>
     </row>
-    <row r="6" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="A6" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>34.54</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>34.94</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>34.94</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>34.94</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>34.94</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>34.94</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>34.94</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>34.94</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>34.31</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <v>31.97</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <v>29.94</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <v>29.9</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="6">
         <v>29.32</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="6">
         <v>29.58</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="6">
         <v>28.22</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="6">
         <v>29.44</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="6">
         <v>29.62</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="6">
         <v>29.61</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="6">
         <v>29</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="6">
         <v>29.13</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="6">
         <v>28.5</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="6">
         <v>27.54</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="Y6" s="6">
         <v>26.63</v>
       </c>
-      <c r="Z6" s="7">
+      <c r="Z6" s="6">
         <v>26.83</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AA6" s="6">
         <v>26.34</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AB6" s="6">
         <v>24.77</v>
       </c>
-      <c r="AC6" s="7">
+      <c r="AC6" s="6">
         <v>24.07</v>
       </c>
-      <c r="AD6" s="7">
+      <c r="AD6" s="6">
         <v>22.6</v>
       </c>
-      <c r="AE6" s="7">
+      <c r="AE6" s="6">
         <v>21.74</v>
       </c>
-      <c r="AF6" s="7">
+      <c r="AF6" s="6">
         <v>21.4</v>
       </c>
-      <c r="AG6" s="7">
+      <c r="AG6" s="6">
         <v>22.2</v>
       </c>
-      <c r="AH6" s="7">
+      <c r="AH6" s="6">
         <v>22.32</v>
       </c>
-      <c r="AI6" s="7">
+      <c r="AI6" s="6">
         <v>21.65</v>
       </c>
-      <c r="AJ6" s="7">
+      <c r="AJ6" s="6">
         <v>19.14</v>
       </c>
-      <c r="AK6" s="7">
+      <c r="AK6" s="6">
         <v>19.43</v>
       </c>
-      <c r="AL6" s="7">
+      <c r="AL6" s="6">
         <v>22.9</v>
       </c>
-      <c r="AM6" s="7">
+      <c r="AM6" s="6">
         <v>25.91</v>
       </c>
-      <c r="AN6" s="7">
+      <c r="AN6" s="6">
         <v>27.33</v>
       </c>
-      <c r="AO6" s="7">
+      <c r="AO6" s="6">
         <v>26.4</v>
       </c>
-      <c r="AP6" s="7">
+      <c r="AP6" s="6">
         <v>25.72</v>
       </c>
-      <c r="AQ6" s="7">
+      <c r="AQ6" s="6">
         <v>25.68</v>
       </c>
-      <c r="AR6" s="7">
+      <c r="AR6" s="6">
         <v>26.01</v>
       </c>
-      <c r="AS6" s="7">
+      <c r="AS6" s="6">
         <v>25.92</v>
       </c>
-      <c r="AT6" s="7">
+      <c r="AT6" s="6">
         <v>26.62</v>
       </c>
-      <c r="AU6" s="7">
+      <c r="AU6" s="6">
         <v>26.23</v>
       </c>
-      <c r="AV6" s="7">
+      <c r="AV6" s="6">
         <v>27.92</v>
       </c>
-      <c r="AW6" s="7">
+      <c r="AW6" s="6">
         <v>27.61</v>
       </c>
-      <c r="AX6" s="7">
+      <c r="AX6" s="6">
         <v>27.39</v>
       </c>
-      <c r="AY6" s="7">
+      <c r="AY6" s="6">
         <v>26.5</v>
       </c>
-      <c r="AZ6" s="7">
+      <c r="AZ6" s="6">
         <v>25.55</v>
       </c>
-      <c r="BA6" s="7">
+      <c r="BA6" s="6">
         <v>26.47</v>
       </c>
-      <c r="BB6" s="7">
+      <c r="BB6" s="6">
         <v>29.12</v>
       </c>
-      <c r="BC6" s="7">
+      <c r="BC6" s="6">
         <v>29.89</v>
       </c>
-      <c r="BD6" s="7">
+      <c r="BD6" s="6">
         <v>29.8</v>
       </c>
-      <c r="BE6" s="7">
+      <c r="BE6" s="6">
         <v>29.25</v>
       </c>
-      <c r="BF6" s="7">
+      <c r="BF6" s="6">
         <v>28.98</v>
       </c>
-      <c r="BG6" s="7">
+      <c r="BG6" s="6">
         <v>28.79</v>
       </c>
-      <c r="BH6" s="7">
+      <c r="BH6" s="6">
         <v>28.96</v>
       </c>
-      <c r="BI6" s="7">
+      <c r="BI6" s="6">
         <v>27.54</v>
       </c>
-      <c r="BJ6" s="7">
+      <c r="BJ6" s="6">
         <v>26.91</v>
       </c>
-      <c r="BK6" s="7">
+      <c r="BK6" s="6">
         <v>26.93</v>
       </c>
-      <c r="BL6" s="7">
+      <c r="BL6" s="6">
         <v>27.54</v>
       </c>
-      <c r="BM6" s="7">
+      <c r="BM6" s="6">
         <v>26.64</v>
       </c>
-      <c r="BN6" s="7">
+      <c r="BN6" s="6">
         <v>26.46</v>
       </c>
-      <c r="BO6" s="7">
+      <c r="BO6" s="6">
         <v>25.93</v>
       </c>
-      <c r="BP6" s="7">
+      <c r="BP6" s="6">
         <v>25.46</v>
       </c>
-      <c r="BQ6" s="7">
+      <c r="BQ6" s="6">
         <v>24.99</v>
       </c>
-      <c r="BR6" s="7">
+      <c r="BR6" s="6">
         <v>24.52</v>
       </c>
-      <c r="BS6" s="7">
+      <c r="BS6" s="6">
         <v>24.17</v>
       </c>
-      <c r="BT6" s="7">
+      <c r="BT6" s="6">
         <v>25.02</v>
       </c>
-      <c r="BU6" s="7">
+      <c r="BU6" s="6">
         <v>25.57</v>
       </c>
-      <c r="BV6" s="7">
+      <c r="BV6" s="6">
         <v>25.8</v>
       </c>
-      <c r="BW6" s="7">
+      <c r="BW6" s="6">
         <v>26.57</v>
       </c>
-      <c r="BX6" s="7">
+      <c r="BX6" s="6">
         <v>26.43</v>
       </c>
-      <c r="BY6" s="7">
+      <c r="BY6" s="6">
         <v>25.61</v>
       </c>
-      <c r="BZ6" s="7">
+      <c r="BZ6" s="6">
         <v>24.2</v>
       </c>
-      <c r="CA6" s="7">
+      <c r="CA6" s="6">
         <v>24.38</v>
       </c>
-      <c r="CB6" s="7">
+      <c r="CB6" s="6">
         <v>23.34</v>
       </c>
-      <c r="CC6" s="7">
+      <c r="CC6" s="6">
         <v>23.38</v>
       </c>
-      <c r="CD6" s="7">
+      <c r="CD6" s="6">
         <v>24.55</v>
       </c>
-      <c r="CE6" s="7">
+      <c r="CE6" s="6">
         <v>25.04</v>
       </c>
-      <c r="CF6" s="7">
+      <c r="CF6" s="6">
         <v>24.15</v>
       </c>
-      <c r="CG6" s="7">
+      <c r="CG6" s="6">
         <v>22.32</v>
       </c>
-      <c r="CH6" s="7">
+      <c r="CH6" s="6">
         <v>21.86</v>
       </c>
-      <c r="CI6" s="7">
+      <c r="CI6" s="6">
         <v>20.3</v>
       </c>
-      <c r="CJ6" s="7">
+      <c r="CJ6" s="6">
         <v>19.84</v>
       </c>
-      <c r="CK6" s="7">
+      <c r="CK6" s="6">
         <v>21.37</v>
       </c>
-      <c r="CL6" s="7">
+      <c r="CL6" s="6">
         <v>23.06</v>
       </c>
-      <c r="CM6" s="7">
+      <c r="CM6" s="6">
         <v>23.31</v>
       </c>
-      <c r="CN6" s="7">
+      <c r="CN6" s="6">
         <v>23.21</v>
       </c>
-      <c r="CO6" s="7">
+      <c r="CO6" s="6">
         <v>22.9</v>
       </c>
-      <c r="CP6" s="7">
+      <c r="CP6" s="6">
         <v>24.51</v>
       </c>
-      <c r="CQ6" s="7">
+      <c r="CQ6" s="6">
         <v>29.57</v>
       </c>
-      <c r="CR6" s="7">
+      <c r="CR6" s="6">
         <v>26.07</v>
       </c>
-      <c r="CS6" s="7">
+      <c r="CS6" s="6">
         <v>25.34</v>
       </c>
-      <c r="CT6" s="7">
+      <c r="CT6" s="6">
         <v>27.04</v>
       </c>
-      <c r="CU6" s="7">
+      <c r="CU6" s="6">
         <v>26.22</v>
       </c>
-      <c r="CV6" s="7">
+      <c r="CV6" s="6">
         <v>25.79</v>
       </c>
-      <c r="CW6" s="7">
+      <c r="CW6" s="6">
         <v>28.11</v>
       </c>
-      <c r="CX6" s="7">
+      <c r="CX6" s="6">
         <v>29.42</v>
       </c>
-      <c r="CY6" s="7">
+      <c r="CY6" s="6">
         <v>29.66</v>
       </c>
-      <c r="CZ6" s="7">
+      <c r="CZ6" s="6">
         <v>29.99</v>
       </c>
-      <c r="DA6" s="7">
+      <c r="DA6" s="6">
         <v>29.86</v>
       </c>
-      <c r="DB6" s="7">
+      <c r="DB6" s="6">
         <v>29.85</v>
       </c>
-      <c r="DC6" s="7">
+      <c r="DC6" s="6">
         <v>29.91</v>
       </c>
-      <c r="DD6" s="7">
+      <c r="DD6" s="6">
         <v>29.99</v>
       </c>
-      <c r="DE6" s="7">
+      <c r="DE6" s="6">
         <v>29.99</v>
       </c>
-      <c r="DF6" s="7">
+      <c r="DF6" s="6">
         <v>29.99</v>
       </c>
-      <c r="DG6" s="7">
+      <c r="DG6" s="6">
         <v>29.99</v>
       </c>
-      <c r="DH6" s="7">
+      <c r="DH6" s="6">
         <v>29.99</v>
       </c>
     </row>
-    <row r="7" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+      <c r="A7" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>123</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -3267,349 +3161,349 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+      <c r="A8" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>17.59</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>17.59</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>17.11</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>16.59</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>16.59</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>16.09</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>15.59</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>15.59</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>15.59</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <v>15.59</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>15.59</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <v>15.59</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <v>15.59</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="6">
         <v>15.59</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="6">
         <v>15.59</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="6">
         <v>15.59</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="6">
         <v>15.69</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="6">
         <v>15.64</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="6">
         <v>15.03</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V8" s="6">
         <v>14.43</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8" s="6">
         <v>14.15</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X8" s="6">
         <v>13.75</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y8" s="6">
         <v>13.46</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="Z8" s="6">
         <v>13.44</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AA8" s="6">
         <v>13.4</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AB8" s="6">
         <v>13.24</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AC8" s="6">
         <v>13.11</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AD8" s="6">
         <v>13.44</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="AE8" s="6">
         <v>13.95</v>
       </c>
-      <c r="AF8" s="7">
+      <c r="AF8" s="6">
         <v>14.29</v>
       </c>
-      <c r="AG8" s="7">
+      <c r="AG8" s="6">
         <v>14.85</v>
       </c>
-      <c r="AH8" s="7">
+      <c r="AH8" s="6">
         <v>15.31</v>
       </c>
-      <c r="AI8" s="7">
+      <c r="AI8" s="6">
         <v>15.31</v>
       </c>
-      <c r="AJ8" s="7">
+      <c r="AJ8" s="6">
         <v>15.31</v>
       </c>
-      <c r="AK8" s="7">
+      <c r="AK8" s="6">
         <v>15.31</v>
       </c>
-      <c r="AL8" s="7">
+      <c r="AL8" s="6">
         <v>15.31</v>
       </c>
-      <c r="AM8" s="7">
+      <c r="AM8" s="6">
         <v>15.33</v>
       </c>
-      <c r="AN8" s="7">
+      <c r="AN8" s="6">
         <v>15.48</v>
       </c>
-      <c r="AO8" s="7">
+      <c r="AO8" s="6">
         <v>15.62</v>
       </c>
-      <c r="AP8" s="7">
+      <c r="AP8" s="6">
         <v>15.67</v>
       </c>
-      <c r="AQ8" s="7">
+      <c r="AQ8" s="6">
         <v>15.61</v>
       </c>
-      <c r="AR8" s="7">
+      <c r="AR8" s="6">
         <v>15.58</v>
       </c>
-      <c r="AS8" s="7">
+      <c r="AS8" s="6">
         <v>15.75</v>
       </c>
-      <c r="AT8" s="7">
+      <c r="AT8" s="6">
         <v>15.86</v>
       </c>
-      <c r="AU8" s="7">
+      <c r="AU8" s="6">
         <v>15.91</v>
       </c>
-      <c r="AV8" s="7">
+      <c r="AV8" s="6">
         <v>15.97</v>
       </c>
-      <c r="AW8" s="7">
+      <c r="AW8" s="6">
         <v>16.12</v>
       </c>
-      <c r="AX8" s="7">
-        <v>16.329999999999998</v>
-      </c>
-      <c r="AY8" s="7">
-        <v>16.239999999999998</v>
-      </c>
-      <c r="AZ8" s="7">
+      <c r="AX8" s="6">
+        <v>16.33</v>
+      </c>
+      <c r="AY8" s="6">
+        <v>16.24</v>
+      </c>
+      <c r="AZ8" s="6">
         <v>16.07</v>
       </c>
-      <c r="BA8" s="7">
+      <c r="BA8" s="6">
         <v>16.09</v>
       </c>
-      <c r="BB8" s="7">
+      <c r="BB8" s="6">
         <v>15.93</v>
       </c>
-      <c r="BC8" s="7">
+      <c r="BC8" s="6">
         <v>15.44</v>
       </c>
-      <c r="BD8" s="7">
+      <c r="BD8" s="6">
         <v>14.86</v>
       </c>
-      <c r="BE8" s="7">
+      <c r="BE8" s="6">
         <v>14.44</v>
       </c>
-      <c r="BF8" s="7">
+      <c r="BF8" s="6">
         <v>14.18</v>
       </c>
-      <c r="BG8" s="7">
+      <c r="BG8" s="6">
         <v>14.1</v>
       </c>
-      <c r="BH8" s="7">
+      <c r="BH8" s="6">
         <v>13.86</v>
       </c>
-      <c r="BI8" s="7">
+      <c r="BI8" s="6">
         <v>13.57</v>
       </c>
-      <c r="BJ8" s="7">
+      <c r="BJ8" s="6">
         <v>13.64</v>
       </c>
-      <c r="BK8" s="7">
+      <c r="BK8" s="6">
         <v>13.51</v>
       </c>
-      <c r="BL8" s="7">
+      <c r="BL8" s="6">
         <v>13.33</v>
       </c>
-      <c r="BM8" s="7">
+      <c r="BM8" s="6">
         <v>13.39</v>
       </c>
-      <c r="BN8" s="7">
+      <c r="BN8" s="6">
         <v>13.53</v>
       </c>
-      <c r="BO8" s="7">
+      <c r="BO8" s="6">
         <v>13.53</v>
       </c>
-      <c r="BP8" s="7">
+      <c r="BP8" s="6">
         <v>13.33</v>
       </c>
-      <c r="BQ8" s="7">
+      <c r="BQ8" s="6">
         <v>13.28</v>
       </c>
-      <c r="BR8" s="7">
+      <c r="BR8" s="6">
         <v>13.21</v>
       </c>
-      <c r="BS8" s="7">
+      <c r="BS8" s="6">
         <v>13.04</v>
       </c>
-      <c r="BT8" s="7">
+      <c r="BT8" s="6">
         <v>12.99</v>
       </c>
-      <c r="BU8" s="7">
+      <c r="BU8" s="6">
         <v>13.06</v>
       </c>
-      <c r="BV8" s="7">
+      <c r="BV8" s="6">
         <v>12.93</v>
       </c>
-      <c r="BW8" s="7">
+      <c r="BW8" s="6">
         <v>12.59</v>
       </c>
-      <c r="BX8" s="7">
+      <c r="BX8" s="6">
         <v>12.55</v>
       </c>
-      <c r="BY8" s="7">
+      <c r="BY8" s="6">
         <v>12.23</v>
       </c>
-      <c r="BZ8" s="7">
+      <c r="BZ8" s="6">
         <v>12.18</v>
       </c>
-      <c r="CA8" s="7">
+      <c r="CA8" s="6">
         <v>12.47</v>
       </c>
-      <c r="CB8" s="7">
+      <c r="CB8" s="6">
         <v>12.42</v>
       </c>
-      <c r="CC8" s="7">
+      <c r="CC8" s="6">
         <v>12.45</v>
       </c>
-      <c r="CD8" s="7">
+      <c r="CD8" s="6">
         <v>12.54</v>
       </c>
-      <c r="CE8" s="7">
+      <c r="CE8" s="6">
         <v>12.59</v>
       </c>
-      <c r="CF8" s="7">
+      <c r="CF8" s="6">
         <v>12.98</v>
       </c>
-      <c r="CG8" s="7">
+      <c r="CG8" s="6">
         <v>13.4</v>
       </c>
-      <c r="CH8" s="7">
+      <c r="CH8" s="6">
         <v>13.48</v>
       </c>
-      <c r="CI8" s="7">
+      <c r="CI8" s="6">
         <v>13.5</v>
       </c>
-      <c r="CJ8" s="7">
+      <c r="CJ8" s="6">
         <v>13.5</v>
       </c>
-      <c r="CK8" s="7">
+      <c r="CK8" s="6">
         <v>13.5</v>
       </c>
-      <c r="CL8" s="7">
+      <c r="CL8" s="6">
         <v>13.5</v>
       </c>
-      <c r="CM8" s="7">
+      <c r="CM8" s="6">
         <v>13.5</v>
       </c>
-      <c r="CN8" s="7">
+      <c r="CN8" s="6">
         <v>13.38</v>
       </c>
-      <c r="CO8" s="7">
+      <c r="CO8" s="6">
         <v>13</v>
       </c>
-      <c r="CP8" s="7">
+      <c r="CP8" s="6">
         <v>13</v>
       </c>
-      <c r="CQ8" s="7">
+      <c r="CQ8" s="6">
         <v>13</v>
       </c>
-      <c r="CR8" s="7">
+      <c r="CR8" s="6">
         <v>13</v>
       </c>
-      <c r="CS8" s="7">
+      <c r="CS8" s="6">
         <v>13</v>
       </c>
-      <c r="CT8" s="7">
+      <c r="CT8" s="6">
         <v>13</v>
       </c>
-      <c r="CU8" s="7">
+      <c r="CU8" s="6">
         <v>13</v>
       </c>
-      <c r="CV8" s="7">
+      <c r="CV8" s="6">
         <v>12.52</v>
       </c>
-      <c r="CW8" s="7">
+      <c r="CW8" s="6">
         <v>12.44</v>
       </c>
-      <c r="CX8" s="7">
+      <c r="CX8" s="6">
         <v>11.5</v>
       </c>
-      <c r="CY8" s="7">
+      <c r="CY8" s="6">
         <v>11.5</v>
       </c>
-      <c r="CZ8" s="7">
+      <c r="CZ8" s="6">
         <v>10.5</v>
       </c>
-      <c r="DA8" s="7">
+      <c r="DA8" s="6">
         <v>10.5</v>
       </c>
-      <c r="DB8" s="7">
+      <c r="DB8" s="6">
         <v>10.5</v>
       </c>
-      <c r="DC8" s="7">
+      <c r="DC8" s="6">
         <v>10.5</v>
       </c>
-      <c r="DD8" s="7">
+      <c r="DD8" s="6">
         <v>10.5</v>
       </c>
-      <c r="DE8" s="7">
+      <c r="DE8" s="6">
         <v>10.5</v>
       </c>
-      <c r="DF8" s="7">
+      <c r="DF8" s="6">
         <v>10.5</v>
       </c>
-      <c r="DG8" s="7">
+      <c r="DG8" s="6">
         <v>10.5</v>
       </c>
-      <c r="DH8" s="7">
+      <c r="DH8" s="6">
         <v>10.5</v>
       </c>
     </row>
-    <row r="9" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+      <c r="A9" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>127</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -3834,120 +3728,120 @@
       <c r="BX9" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="BY9" s="7">
+      <c r="BY9" s="6">
         <v>23.36</v>
       </c>
-      <c r="BZ9" s="7">
+      <c r="BZ9" s="6">
         <v>23.36</v>
       </c>
-      <c r="CA9" s="7">
+      <c r="CA9" s="6">
         <v>23.36</v>
       </c>
-      <c r="CB9" s="7">
+      <c r="CB9" s="6">
         <v>23.36</v>
       </c>
-      <c r="CC9" s="7">
+      <c r="CC9" s="6">
         <v>23.36</v>
       </c>
-      <c r="CD9" s="7">
+      <c r="CD9" s="6">
         <v>23.36</v>
       </c>
-      <c r="CE9" s="7">
+      <c r="CE9" s="6">
         <v>23.36</v>
       </c>
-      <c r="CF9" s="7">
+      <c r="CF9" s="6">
         <v>23.36</v>
       </c>
-      <c r="CG9" s="7">
+      <c r="CG9" s="6">
         <v>22.19</v>
       </c>
-      <c r="CH9" s="7">
+      <c r="CH9" s="6">
         <v>21.96</v>
       </c>
-      <c r="CI9" s="7">
+      <c r="CI9" s="6">
         <v>21.96</v>
       </c>
-      <c r="CJ9" s="7">
+      <c r="CJ9" s="6">
         <v>22.11</v>
       </c>
-      <c r="CK9" s="7">
+      <c r="CK9" s="6">
         <v>27.36</v>
       </c>
-      <c r="CL9" s="7">
+      <c r="CL9" s="6">
         <v>27.36</v>
       </c>
-      <c r="CM9" s="7">
+      <c r="CM9" s="6">
         <v>27.36</v>
       </c>
-      <c r="CN9" s="7">
+      <c r="CN9" s="6">
         <v>27.36</v>
       </c>
-      <c r="CO9" s="7">
+      <c r="CO9" s="6">
         <v>27.36</v>
       </c>
-      <c r="CP9" s="7">
+      <c r="CP9" s="6">
         <v>28.6</v>
       </c>
-      <c r="CQ9" s="7">
+      <c r="CQ9" s="6">
         <v>29.97</v>
       </c>
-      <c r="CR9" s="7">
+      <c r="CR9" s="6">
         <v>30.43</v>
       </c>
-      <c r="CS9" s="7">
+      <c r="CS9" s="6">
         <v>30.51</v>
       </c>
-      <c r="CT9" s="7">
+      <c r="CT9" s="6">
         <v>31.49</v>
       </c>
-      <c r="CU9" s="7">
+      <c r="CU9" s="6">
         <v>31.76</v>
       </c>
-      <c r="CV9" s="7">
-        <v>32.729999999999997</v>
-      </c>
-      <c r="CW9" s="7">
+      <c r="CV9" s="6">
+        <v>32.73</v>
+      </c>
+      <c r="CW9" s="6">
         <v>33.96</v>
       </c>
-      <c r="CX9" s="7">
+      <c r="CX9" s="6">
         <v>34.86</v>
       </c>
-      <c r="CY9" s="7">
-        <v>35.130000000000003</v>
-      </c>
-      <c r="CZ9" s="7">
+      <c r="CY9" s="6">
+        <v>35.13</v>
+      </c>
+      <c r="CZ9" s="6">
         <v>35.46</v>
       </c>
-      <c r="DA9" s="7">
+      <c r="DA9" s="6">
         <v>35.46</v>
       </c>
-      <c r="DB9" s="7">
+      <c r="DB9" s="6">
         <v>35.46</v>
       </c>
-      <c r="DC9" s="7">
+      <c r="DC9" s="6">
         <v>35.46</v>
       </c>
-      <c r="DD9" s="7">
+      <c r="DD9" s="6">
         <v>35.46</v>
       </c>
-      <c r="DE9" s="7">
+      <c r="DE9" s="6">
         <v>35.46</v>
       </c>
-      <c r="DF9" s="7">
+      <c r="DF9" s="6">
         <v>35.46</v>
       </c>
-      <c r="DG9" s="7">
+      <c r="DG9" s="6">
         <v>35.46</v>
       </c>
-      <c r="DH9" s="7">
+      <c r="DH9" s="6">
         <v>35.46</v>
       </c>
     </row>
-    <row r="10" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+      <c r="A10" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>129</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -4070,222 +3964,222 @@
       <c r="AP10" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="AQ10" s="7">
+      <c r="AQ10" s="6">
         <v>21.65</v>
       </c>
-      <c r="AR10" s="7">
+      <c r="AR10" s="6">
         <v>22.6</v>
       </c>
-      <c r="AS10" s="7">
+      <c r="AS10" s="6">
         <v>22.51</v>
       </c>
-      <c r="AT10" s="7">
+      <c r="AT10" s="6">
         <v>24.88</v>
       </c>
-      <c r="AU10" s="7">
+      <c r="AU10" s="6">
         <v>25.94</v>
       </c>
-      <c r="AV10" s="7">
+      <c r="AV10" s="6">
         <v>26.57</v>
       </c>
-      <c r="AW10" s="7">
+      <c r="AW10" s="6">
         <v>26.57</v>
       </c>
-      <c r="AX10" s="7">
+      <c r="AX10" s="6">
         <v>26.4</v>
       </c>
-      <c r="AY10" s="7">
+      <c r="AY10" s="6">
         <v>25.61</v>
       </c>
-      <c r="AZ10" s="7">
+      <c r="AZ10" s="6">
         <v>24.54</v>
       </c>
-      <c r="BA10" s="7">
+      <c r="BA10" s="6">
         <v>29.79</v>
       </c>
-      <c r="BB10" s="7">
+      <c r="BB10" s="6">
         <v>27.89</v>
       </c>
-      <c r="BC10" s="7">
+      <c r="BC10" s="6">
         <v>28.06</v>
       </c>
-      <c r="BD10" s="7">
+      <c r="BD10" s="6">
         <v>27.05</v>
       </c>
-      <c r="BE10" s="7">
+      <c r="BE10" s="6">
         <v>27.04</v>
       </c>
-      <c r="BF10" s="7">
+      <c r="BF10" s="6">
         <v>27.04</v>
       </c>
-      <c r="BG10" s="7">
+      <c r="BG10" s="6">
         <v>26.45</v>
       </c>
-      <c r="BH10" s="7">
+      <c r="BH10" s="6">
         <v>24.33</v>
       </c>
-      <c r="BI10" s="7">
+      <c r="BI10" s="6">
         <v>24.36</v>
       </c>
-      <c r="BJ10" s="7">
+      <c r="BJ10" s="6">
         <v>24.01</v>
       </c>
-      <c r="BK10" s="7">
+      <c r="BK10" s="6">
         <v>23.78</v>
       </c>
-      <c r="BL10" s="7">
+      <c r="BL10" s="6">
         <v>24.01</v>
       </c>
-      <c r="BM10" s="7">
+      <c r="BM10" s="6">
         <v>24.12</v>
       </c>
-      <c r="BN10" s="7">
+      <c r="BN10" s="6">
         <v>24.32</v>
       </c>
-      <c r="BO10" s="7">
+      <c r="BO10" s="6">
         <v>22.77</v>
       </c>
-      <c r="BP10" s="7">
+      <c r="BP10" s="6">
         <v>22.34</v>
       </c>
-      <c r="BQ10" s="7">
+      <c r="BQ10" s="6">
         <v>22.09</v>
       </c>
-      <c r="BR10" s="7">
+      <c r="BR10" s="6">
         <v>22.09</v>
       </c>
-      <c r="BS10" s="7">
+      <c r="BS10" s="6">
         <v>22.1</v>
       </c>
-      <c r="BT10" s="7">
+      <c r="BT10" s="6">
         <v>22.32</v>
       </c>
-      <c r="BU10" s="7">
+      <c r="BU10" s="6">
         <v>22.58</v>
       </c>
-      <c r="BV10" s="7">
+      <c r="BV10" s="6">
         <v>22.69</v>
       </c>
-      <c r="BW10" s="7">
+      <c r="BW10" s="6">
         <v>23</v>
       </c>
-      <c r="BX10" s="7">
+      <c r="BX10" s="6">
         <v>23.61</v>
       </c>
-      <c r="BY10" s="7">
+      <c r="BY10" s="6">
         <v>22.52</v>
       </c>
-      <c r="BZ10" s="7">
+      <c r="BZ10" s="6">
         <v>24.37</v>
       </c>
-      <c r="CA10" s="7">
+      <c r="CA10" s="6">
         <v>20.66</v>
       </c>
-      <c r="CB10" s="7">
+      <c r="CB10" s="6">
         <v>19.95</v>
       </c>
-      <c r="CC10" s="7">
-        <v>19.690000000000001</v>
-      </c>
-      <c r="CD10" s="7">
+      <c r="CC10" s="6">
+        <v>19.69</v>
+      </c>
+      <c r="CD10" s="6">
         <v>19.84</v>
       </c>
-      <c r="CE10" s="7">
+      <c r="CE10" s="6">
         <v>19.47</v>
       </c>
-      <c r="CF10" s="7">
+      <c r="CF10" s="6">
         <v>18.72</v>
       </c>
-      <c r="CG10" s="7">
-        <v>17.579999999999998</v>
-      </c>
-      <c r="CH10" s="7">
+      <c r="CG10" s="6">
+        <v>17.58</v>
+      </c>
+      <c r="CH10" s="6">
         <v>16.91</v>
       </c>
-      <c r="CI10" s="7">
+      <c r="CI10" s="6">
         <v>16.27</v>
       </c>
-      <c r="CJ10" s="7">
-        <v>16.579999999999998</v>
-      </c>
-      <c r="CK10" s="7">
+      <c r="CJ10" s="6">
+        <v>16.58</v>
+      </c>
+      <c r="CK10" s="6">
         <v>18.11</v>
       </c>
-      <c r="CL10" s="7">
+      <c r="CL10" s="6">
         <v>19.18</v>
       </c>
-      <c r="CM10" s="7">
-        <v>19.510000000000002</v>
-      </c>
-      <c r="CN10" s="7">
+      <c r="CM10" s="6">
+        <v>19.51</v>
+      </c>
+      <c r="CN10" s="6">
         <v>19.61</v>
       </c>
-      <c r="CO10" s="7">
+      <c r="CO10" s="6">
         <v>20.45</v>
       </c>
-      <c r="CP10" s="7">
+      <c r="CP10" s="6">
         <v>21.83</v>
       </c>
-      <c r="CQ10" s="7">
+      <c r="CQ10" s="6">
         <v>23.48</v>
       </c>
-      <c r="CR10" s="7">
+      <c r="CR10" s="6">
         <v>23.8</v>
       </c>
-      <c r="CS10" s="7">
+      <c r="CS10" s="6">
         <v>21.32</v>
       </c>
-      <c r="CT10" s="7">
+      <c r="CT10" s="6">
         <v>21.71</v>
       </c>
-      <c r="CU10" s="7">
+      <c r="CU10" s="6">
         <v>21.55</v>
       </c>
-      <c r="CV10" s="7">
+      <c r="CV10" s="6">
         <v>20.32</v>
       </c>
-      <c r="CW10" s="7">
+      <c r="CW10" s="6">
         <v>22.7</v>
       </c>
-      <c r="CX10" s="7">
+      <c r="CX10" s="6">
         <v>25.53</v>
       </c>
-      <c r="CY10" s="7">
+      <c r="CY10" s="6">
         <v>26.88</v>
       </c>
-      <c r="CZ10" s="7">
+      <c r="CZ10" s="6">
         <v>28.15</v>
       </c>
-      <c r="DA10" s="7">
+      <c r="DA10" s="6">
         <v>28.48</v>
       </c>
-      <c r="DB10" s="7">
+      <c r="DB10" s="6">
         <v>28.82</v>
       </c>
-      <c r="DC10" s="7">
+      <c r="DC10" s="6">
         <v>29.02</v>
       </c>
-      <c r="DD10" s="7">
+      <c r="DD10" s="6">
         <v>28.42</v>
       </c>
-      <c r="DE10" s="7">
+      <c r="DE10" s="6">
         <v>28.27</v>
       </c>
-      <c r="DF10" s="7">
+      <c r="DF10" s="6">
         <v>28.34</v>
       </c>
-      <c r="DG10" s="7">
+      <c r="DG10" s="6">
         <v>28.35</v>
       </c>
-      <c r="DH10" s="7">
+      <c r="DH10" s="6">
         <v>28.4</v>
       </c>
     </row>
-    <row r="11" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+      <c r="A11" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>131</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -4619,687 +4513,467 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+      <c r="A12" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>427.63</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>427.63</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>426.67</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>426.67</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>426.67</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>426.67</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>410.83</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>399.94</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <v>381.67</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>370.19</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <v>353.72</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="6">
         <v>338.25</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="6">
         <v>335.9</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="6">
         <v>338.25</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="6">
         <v>338.25</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="6">
         <v>338.25</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="6">
         <v>335.9</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="6">
         <v>335.9</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="6">
         <v>335.9</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="6">
         <v>335.9</v>
       </c>
-      <c r="W12" s="7">
+      <c r="W12" s="6">
         <v>338.25</v>
       </c>
-      <c r="X12" s="7">
+      <c r="X12" s="6">
         <v>333.73</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="Y12" s="6">
         <v>333.62</v>
       </c>
-      <c r="Z12" s="7">
+      <c r="Z12" s="6">
         <v>338.33</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AA12" s="6">
         <v>338.33</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AB12" s="6">
         <v>338.33</v>
       </c>
-      <c r="AC12" s="7">
+      <c r="AC12" s="6">
         <v>338.33</v>
       </c>
-      <c r="AD12" s="7">
+      <c r="AD12" s="6">
         <v>338.33</v>
       </c>
-      <c r="AE12" s="7">
+      <c r="AE12" s="6">
         <v>338.33</v>
       </c>
-      <c r="AF12" s="7">
+      <c r="AF12" s="6">
         <v>338.33</v>
       </c>
-      <c r="AG12" s="7">
+      <c r="AG12" s="6">
         <v>338.33</v>
       </c>
-      <c r="AH12" s="7">
+      <c r="AH12" s="6">
         <v>338.33</v>
       </c>
-      <c r="AI12" s="7">
+      <c r="AI12" s="6">
         <v>338.33</v>
       </c>
-      <c r="AJ12" s="7">
+      <c r="AJ12" s="6">
         <v>333.36</v>
       </c>
-      <c r="AK12" s="7">
+      <c r="AK12" s="6">
         <v>338.33</v>
       </c>
-      <c r="AL12" s="7">
+      <c r="AL12" s="6">
         <v>367.92</v>
       </c>
-      <c r="AM12" s="7">
+      <c r="AM12" s="6">
         <v>378.33</v>
       </c>
-      <c r="AN12" s="7">
+      <c r="AN12" s="6">
         <v>378.33</v>
       </c>
-      <c r="AO12" s="7">
+      <c r="AO12" s="6">
         <v>378.33</v>
       </c>
-      <c r="AP12" s="7">
+      <c r="AP12" s="6">
         <v>378.33</v>
       </c>
-      <c r="AQ12" s="7">
+      <c r="AQ12" s="6">
         <v>373.86</v>
       </c>
-      <c r="AR12" s="7">
+      <c r="AR12" s="6">
         <v>373.86</v>
       </c>
-      <c r="AS12" s="7">
+      <c r="AS12" s="6">
         <v>378.33</v>
       </c>
-      <c r="AT12" s="7">
+      <c r="AT12" s="6">
         <v>373.86</v>
       </c>
-      <c r="AU12" s="7">
+      <c r="AU12" s="6">
         <v>373.86</v>
       </c>
-      <c r="AV12" s="7">
+      <c r="AV12" s="6">
         <v>373.86</v>
       </c>
-      <c r="AW12" s="7">
+      <c r="AW12" s="6">
         <v>378.33</v>
       </c>
-      <c r="AX12" s="7">
+      <c r="AX12" s="6">
         <v>378.33</v>
       </c>
-      <c r="AY12" s="7">
+      <c r="AY12" s="6">
         <v>378.33</v>
       </c>
-      <c r="AZ12" s="7">
+      <c r="AZ12" s="6">
         <v>378.33</v>
       </c>
-      <c r="BA12" s="7">
+      <c r="BA12" s="6">
         <v>373.86</v>
       </c>
-      <c r="BB12" s="7">
+      <c r="BB12" s="6">
         <v>373.86</v>
       </c>
-      <c r="BC12" s="7">
+      <c r="BC12" s="6">
         <v>378.33</v>
       </c>
-      <c r="BD12" s="7">
+      <c r="BD12" s="6">
         <v>378.33</v>
       </c>
-      <c r="BE12" s="7">
+      <c r="BE12" s="6">
         <v>377.5</v>
       </c>
-      <c r="BF12" s="7">
+      <c r="BF12" s="6">
         <v>376.5</v>
       </c>
-      <c r="BG12" s="7">
+      <c r="BG12" s="6">
         <v>374.27</v>
       </c>
-      <c r="BH12" s="7">
+      <c r="BH12" s="6">
         <v>382.5</v>
       </c>
-      <c r="BI12" s="7">
+      <c r="BI12" s="6">
         <v>360.25</v>
       </c>
-      <c r="BJ12" s="7">
+      <c r="BJ12" s="6">
         <v>351</v>
       </c>
-      <c r="BK12" s="7">
+      <c r="BK12" s="6">
         <v>361.17</v>
       </c>
-      <c r="BL12" s="7">
+      <c r="BL12" s="6">
         <v>374.08</v>
       </c>
-      <c r="BM12" s="7">
+      <c r="BM12" s="6">
         <v>373.07</v>
       </c>
-      <c r="BN12" s="7">
+      <c r="BN12" s="6">
         <v>370.07</v>
       </c>
-      <c r="BO12" s="7">
+      <c r="BO12" s="6">
         <v>370.07</v>
       </c>
-      <c r="BP12" s="7">
+      <c r="BP12" s="6">
         <v>370.07</v>
       </c>
-      <c r="BQ12" s="7">
+      <c r="BQ12" s="6">
         <v>358.64</v>
       </c>
-      <c r="BR12" s="7">
+      <c r="BR12" s="6">
         <v>358.64</v>
       </c>
-      <c r="BS12" s="7">
+      <c r="BS12" s="6">
         <v>358.64</v>
       </c>
-      <c r="BT12" s="7">
+      <c r="BT12" s="6">
         <v>358.64</v>
       </c>
-      <c r="BU12" s="7">
+      <c r="BU12" s="6">
         <v>373.57</v>
       </c>
-      <c r="BV12" s="7">
+      <c r="BV12" s="6">
         <v>373.57</v>
       </c>
-      <c r="BW12" s="7">
+      <c r="BW12" s="6">
         <v>373.57</v>
       </c>
-      <c r="BX12" s="7">
+      <c r="BX12" s="6">
         <v>362.08</v>
       </c>
-      <c r="BY12" s="7">
+      <c r="BY12" s="6">
         <v>362.08</v>
       </c>
-      <c r="BZ12" s="7">
+      <c r="BZ12" s="6">
         <v>362.08</v>
       </c>
-      <c r="CA12" s="7">
+      <c r="CA12" s="6">
         <v>362.08</v>
       </c>
-      <c r="CB12" s="7">
+      <c r="CB12" s="6">
         <v>362.08</v>
       </c>
-      <c r="CC12" s="7">
+      <c r="CC12" s="6">
         <v>362.08</v>
       </c>
-      <c r="CD12" s="7">
+      <c r="CD12" s="6">
         <v>362.08</v>
       </c>
-      <c r="CE12" s="7">
+      <c r="CE12" s="6">
         <v>362.08</v>
       </c>
-      <c r="CF12" s="7">
+      <c r="CF12" s="6">
         <v>362.08</v>
       </c>
-      <c r="CG12" s="7">
+      <c r="CG12" s="6">
         <v>358.64</v>
       </c>
-      <c r="CH12" s="7">
+      <c r="CH12" s="6">
         <v>358.64</v>
       </c>
-      <c r="CI12" s="7">
+      <c r="CI12" s="6">
         <v>358.64</v>
       </c>
-      <c r="CJ12" s="7">
+      <c r="CJ12" s="6">
         <v>385.45</v>
       </c>
-      <c r="CK12" s="7">
+      <c r="CK12" s="6">
         <v>385.45</v>
       </c>
-      <c r="CL12" s="7">
+      <c r="CL12" s="6">
         <v>385.45</v>
       </c>
-      <c r="CM12" s="7">
+      <c r="CM12" s="6">
         <v>385.45</v>
       </c>
-      <c r="CN12" s="7">
+      <c r="CN12" s="6">
         <v>385.45</v>
       </c>
-      <c r="CO12" s="7">
+      <c r="CO12" s="6">
         <v>389.09</v>
       </c>
-      <c r="CP12" s="7">
+      <c r="CP12" s="6">
         <v>400</v>
       </c>
-      <c r="CQ12" s="7">
+      <c r="CQ12" s="6">
         <v>400</v>
       </c>
-      <c r="CR12" s="7">
+      <c r="CR12" s="6">
         <v>400</v>
       </c>
-      <c r="CS12" s="7">
+      <c r="CS12" s="6">
         <v>400</v>
       </c>
-      <c r="CT12" s="7">
+      <c r="CT12" s="6">
         <v>400.91</v>
       </c>
-      <c r="CU12" s="7">
+      <c r="CU12" s="6">
         <v>400.91</v>
       </c>
-      <c r="CV12" s="7">
+      <c r="CV12" s="6">
         <v>400.91</v>
       </c>
-      <c r="CW12" s="7">
+      <c r="CW12" s="6">
         <v>400.91</v>
       </c>
-      <c r="CX12" s="7">
+      <c r="CX12" s="6">
         <v>385.27</v>
       </c>
-      <c r="CY12" s="7">
+      <c r="CY12" s="6">
         <v>378.91</v>
       </c>
-      <c r="CZ12" s="7">
+      <c r="CZ12" s="6">
         <v>378.91</v>
       </c>
-      <c r="DA12" s="7">
+      <c r="DA12" s="6">
         <v>378.91</v>
       </c>
-      <c r="DB12" s="7">
+      <c r="DB12" s="6">
         <v>378.91</v>
       </c>
-      <c r="DC12" s="7">
+      <c r="DC12" s="6">
         <v>378.91</v>
       </c>
-      <c r="DD12" s="7">
+      <c r="DD12" s="6">
         <v>378.91</v>
       </c>
-      <c r="DE12" s="7">
+      <c r="DE12" s="6">
         <v>365.91</v>
       </c>
-      <c r="DF12" s="7">
+      <c r="DF12" s="6">
         <v>358.82</v>
       </c>
-      <c r="DG12" s="7">
+      <c r="DG12" s="6">
         <v>349.91</v>
       </c>
-      <c r="DH12" s="7">
+      <c r="DH12" s="6">
         <v>342.82</v>
       </c>
     </row>
-    <row r="13" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+      <c r="A13" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="T13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="U13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="V13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="W13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="X13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CS13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CT13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CV13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CW13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CX13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CY13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CZ13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DA13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DB13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DD13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DE13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DF13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DG13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DH13" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
+      <c r="AW13" s="6"/>
+      <c r="AX13" s="6"/>
+      <c r="AY13" s="6"/>
+      <c r="AZ13" s="6"/>
+      <c r="BA13" s="6"/>
+      <c r="BB13" s="6"/>
+      <c r="BC13" s="6"/>
+      <c r="BD13" s="6"/>
+      <c r="BE13" s="6"/>
+      <c r="BF13" s="6"/>
+      <c r="BG13" s="6"/>
+      <c r="BH13" s="6"/>
+      <c r="BI13" s="6"/>
+      <c r="BJ13" s="6"/>
+      <c r="BK13" s="6"/>
+      <c r="BL13" s="6"/>
+      <c r="BM13" s="6"/>
+      <c r="BN13" s="6"/>
+      <c r="BO13" s="6"/>
+      <c r="BP13" s="6"/>
+      <c r="BQ13" s="6"/>
+      <c r="BR13" s="6"/>
+      <c r="BS13" s="6"/>
+      <c r="BT13" s="6"/>
+      <c r="BU13" s="6"/>
+      <c r="BV13" s="6"/>
+      <c r="BW13" s="6"/>
+      <c r="BX13" s="6"/>
+      <c r="BY13" s="6"/>
+      <c r="BZ13" s="6"/>
+      <c r="CA13" s="6"/>
+      <c r="CB13" s="6"/>
+      <c r="CC13" s="6"/>
+      <c r="CD13" s="6"/>
+      <c r="CE13" s="6"/>
+      <c r="CF13" s="6"/>
+      <c r="CG13" s="6"/>
+      <c r="CH13" s="6"/>
+      <c r="CI13" s="6"/>
+      <c r="CJ13" s="6"/>
+      <c r="CK13" s="6"/>
+      <c r="CL13" s="6"/>
+      <c r="CM13" s="6"/>
+      <c r="CN13" s="6"/>
+      <c r="CO13" s="6"/>
+      <c r="CP13" s="6"/>
+      <c r="CQ13" s="6"/>
+      <c r="CR13" s="6"/>
+      <c r="CS13" s="6"/>
+      <c r="CT13" s="6"/>
+      <c r="CU13" s="6"/>
+      <c r="CV13" s="6"/>
+      <c r="CW13" s="6"/>
+      <c r="CX13" s="6"/>
+      <c r="CY13" s="6"/>
+      <c r="CZ13" s="6"/>
+      <c r="DA13" s="6"/>
+      <c r="DB13" s="6"/>
+      <c r="DC13" s="6"/>
+      <c r="DD13" s="6"/>
+      <c r="DE13" s="6"/>
+      <c r="DF13" s="6"/>
+      <c r="DG13" s="6"/>
+      <c r="DH13" s="6"/>
     </row>
-    <row r="14" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+      <c r="A14" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -5521,1608 +5195,575 @@
       <c r="BW14" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="BX14" s="7">
+      <c r="BX14" s="6">
         <v>139.91</v>
       </c>
-      <c r="BY14" s="7">
+      <c r="BY14" s="6">
         <v>139.91</v>
       </c>
-      <c r="BZ14" s="7">
+      <c r="BZ14" s="6">
         <v>139.91</v>
       </c>
-      <c r="CA14" s="7">
+      <c r="CA14" s="6">
         <v>139.91</v>
       </c>
-      <c r="CB14" s="7">
+      <c r="CB14" s="6">
         <v>139.91</v>
       </c>
-      <c r="CC14" s="7">
+      <c r="CC14" s="6">
         <v>139.91</v>
       </c>
-      <c r="CD14" s="7">
+      <c r="CD14" s="6">
         <v>139.91</v>
       </c>
-      <c r="CE14" s="7">
+      <c r="CE14" s="6">
         <v>139.91</v>
       </c>
-      <c r="CF14" s="7">
+      <c r="CF14" s="6">
         <v>139.91</v>
       </c>
-      <c r="CG14" s="7">
+      <c r="CG14" s="6">
         <v>139.91</v>
       </c>
-      <c r="CH14" s="7">
+      <c r="CH14" s="6">
         <v>139.91</v>
       </c>
-      <c r="CI14" s="7">
+      <c r="CI14" s="6">
         <v>139.91</v>
       </c>
-      <c r="CJ14" s="7">
+      <c r="CJ14" s="6">
         <v>139.91</v>
       </c>
-      <c r="CK14" s="7">
+      <c r="CK14" s="6">
         <v>139.91</v>
       </c>
-      <c r="CL14" s="7">
+      <c r="CL14" s="6">
         <v>139.91</v>
       </c>
-      <c r="CM14" s="7">
+      <c r="CM14" s="6">
         <v>139.91</v>
       </c>
-      <c r="CN14" s="7">
+      <c r="CN14" s="6">
         <v>139.91</v>
       </c>
-      <c r="CO14" s="7">
+      <c r="CO14" s="6">
         <v>139.91</v>
       </c>
-      <c r="CP14" s="7">
+      <c r="CP14" s="6">
         <v>139</v>
       </c>
-      <c r="CQ14" s="7">
+      <c r="CQ14" s="6">
         <v>139</v>
       </c>
-      <c r="CR14" s="7">
+      <c r="CR14" s="6">
         <v>139</v>
       </c>
-      <c r="CS14" s="7">
+      <c r="CS14" s="6">
         <v>139</v>
       </c>
-      <c r="CT14" s="7">
+      <c r="CT14" s="6">
         <v>139</v>
       </c>
-      <c r="CU14" s="7">
+      <c r="CU14" s="6">
         <v>139</v>
       </c>
-      <c r="CV14" s="7">
+      <c r="CV14" s="6">
         <v>139</v>
       </c>
-      <c r="CW14" s="7">
+      <c r="CW14" s="6">
         <v>139</v>
       </c>
-      <c r="CX14" s="7">
+      <c r="CX14" s="6">
         <v>139</v>
       </c>
-      <c r="CY14" s="7">
+      <c r="CY14" s="6">
         <v>139</v>
       </c>
-      <c r="CZ14" s="7">
+      <c r="CZ14" s="6">
         <v>139</v>
       </c>
-      <c r="DA14" s="7">
+      <c r="DA14" s="6">
         <v>139</v>
       </c>
-      <c r="DB14" s="7">
-        <v>138.19999999999999</v>
-      </c>
-      <c r="DC14" s="7">
-        <v>138.19999999999999</v>
-      </c>
-      <c r="DD14" s="7">
-        <v>138.19999999999999</v>
-      </c>
-      <c r="DE14" s="7">
+      <c r="DB14" s="6">
+        <v>138.2</v>
+      </c>
+      <c r="DC14" s="6">
+        <v>138.2</v>
+      </c>
+      <c r="DD14" s="6">
+        <v>138.2</v>
+      </c>
+      <c r="DE14" s="6">
         <v>138.56</v>
       </c>
-      <c r="DF14" s="7">
+      <c r="DF14" s="6">
         <v>138.56</v>
       </c>
-      <c r="DG14" s="7">
+      <c r="DG14" s="6">
         <v>138.56</v>
       </c>
-      <c r="DH14" s="7">
+      <c r="DH14" s="6">
         <v>138.56</v>
       </c>
     </row>
-    <row r="15" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+      <c r="A15" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="T15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="U15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="V15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="W15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="X15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CS15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CT15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CV15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CW15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CX15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CY15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CZ15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DA15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DB15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DD15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DE15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DF15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DG15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DH15" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="6"/>
+      <c r="AW15" s="6"/>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="6"/>
+      <c r="BA15" s="6"/>
+      <c r="BB15" s="6"/>
+      <c r="BC15" s="6"/>
+      <c r="BD15" s="6"/>
+      <c r="BE15" s="6"/>
+      <c r="BF15" s="6"/>
+      <c r="BG15" s="6"/>
+      <c r="BH15" s="6"/>
+      <c r="BI15" s="6"/>
+      <c r="BJ15" s="6"/>
+      <c r="BK15" s="6"/>
+      <c r="BL15" s="6"/>
+      <c r="BM15" s="6"/>
+      <c r="BN15" s="6"/>
+      <c r="BO15" s="6"/>
+      <c r="BP15" s="6"/>
+      <c r="BQ15" s="6"/>
+      <c r="BR15" s="6"/>
+      <c r="BS15" s="6"/>
+      <c r="BT15" s="6"/>
+      <c r="BU15" s="6"/>
+      <c r="BV15" s="6"/>
+      <c r="BW15" s="6"/>
+      <c r="BX15" s="6"/>
+      <c r="BY15" s="6"/>
+      <c r="BZ15" s="6"/>
+      <c r="CA15" s="6"/>
+      <c r="CB15" s="6"/>
+      <c r="CC15" s="6"/>
+      <c r="CD15" s="6"/>
+      <c r="CE15" s="6"/>
+      <c r="CF15" s="6"/>
+      <c r="CG15" s="6"/>
+      <c r="CH15" s="6"/>
+      <c r="CI15" s="6"/>
+      <c r="CJ15" s="6"/>
+      <c r="CK15" s="6"/>
+      <c r="CL15" s="6"/>
+      <c r="CM15" s="6"/>
+      <c r="CN15" s="6"/>
+      <c r="CO15" s="6"/>
+      <c r="CP15" s="6"/>
+      <c r="CQ15" s="6"/>
+      <c r="CR15" s="6"/>
+      <c r="CS15" s="6"/>
+      <c r="CT15" s="6"/>
+      <c r="CU15" s="6"/>
+      <c r="CV15" s="6"/>
+      <c r="CW15" s="6"/>
+      <c r="CX15" s="6"/>
+      <c r="CY15" s="6"/>
+      <c r="CZ15" s="6"/>
+      <c r="DA15" s="6"/>
+      <c r="DB15" s="6"/>
+      <c r="DC15" s="6"/>
+      <c r="DD15" s="6"/>
+      <c r="DE15" s="6"/>
+      <c r="DF15" s="6"/>
+      <c r="DG15" s="6"/>
+      <c r="DH15" s="6"/>
     </row>
-    <row r="16" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+      <c r="A16" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <v>23</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="9">
         <v>23</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="9">
         <v>23</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="9">
         <v>23</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="9">
         <v>23</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="9">
         <v>23</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="9">
         <v>23</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="9">
         <v>23</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="9">
         <v>23</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="9">
         <v>23</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="9">
         <v>23</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="9">
         <v>23</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="9">
         <v>23</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="9">
         <v>23</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="9">
         <v>23</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16" s="9">
         <v>23</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S16" s="9">
         <v>23</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="9">
         <v>23</v>
       </c>
-      <c r="U16" s="8">
+      <c r="U16" s="9">
         <v>23</v>
       </c>
-      <c r="V16" s="8">
+      <c r="V16" s="9">
         <v>23</v>
       </c>
-      <c r="W16" s="8">
+      <c r="W16" s="9">
         <v>23</v>
       </c>
-      <c r="X16" s="8">
+      <c r="X16" s="9">
         <v>23</v>
       </c>
-      <c r="Y16" s="8">
+      <c r="Y16" s="9">
         <v>23</v>
       </c>
-      <c r="Z16" s="8">
+      <c r="Z16" s="9">
         <v>23</v>
       </c>
-      <c r="AA16" s="8">
+      <c r="AA16" s="9">
         <v>23</v>
       </c>
-      <c r="AB16" s="8">
+      <c r="AB16" s="9">
         <v>23</v>
       </c>
-      <c r="AC16" s="8">
+      <c r="AC16" s="9">
         <v>23</v>
       </c>
-      <c r="AD16" s="8">
+      <c r="AD16" s="9">
         <v>23</v>
       </c>
-      <c r="AE16" s="8">
+      <c r="AE16" s="9">
         <v>23</v>
       </c>
-      <c r="AF16" s="8">
+      <c r="AF16" s="9">
         <v>22</v>
       </c>
-      <c r="AG16" s="8">
+      <c r="AG16" s="9">
         <v>22</v>
       </c>
-      <c r="AH16" s="8">
+      <c r="AH16" s="9">
         <v>22</v>
       </c>
-      <c r="AI16" s="8">
+      <c r="AI16" s="9">
         <v>22</v>
       </c>
-      <c r="AJ16" s="8">
+      <c r="AJ16" s="9">
         <v>22</v>
       </c>
-      <c r="AK16" s="8">
+      <c r="AK16" s="9">
         <v>22</v>
       </c>
-      <c r="AL16" s="8">
+      <c r="AL16" s="9">
         <v>22</v>
       </c>
-      <c r="AM16" s="8">
+      <c r="AM16" s="9">
         <v>22</v>
       </c>
-      <c r="AN16" s="8">
+      <c r="AN16" s="9">
         <v>22</v>
       </c>
-      <c r="AO16" s="8">
+      <c r="AO16" s="9">
         <v>22</v>
       </c>
-      <c r="AP16" s="8">
+      <c r="AP16" s="9">
         <v>22</v>
       </c>
-      <c r="AQ16" s="8">
+      <c r="AQ16" s="9">
         <v>22</v>
       </c>
-      <c r="AR16" s="8">
+      <c r="AR16" s="9">
         <v>22</v>
       </c>
-      <c r="AS16" s="8">
+      <c r="AS16" s="9">
         <v>22</v>
       </c>
-      <c r="AT16" s="8">
+      <c r="AT16" s="9">
         <v>21</v>
       </c>
-      <c r="AU16" s="8">
+      <c r="AU16" s="9">
         <v>21</v>
       </c>
-      <c r="AV16" s="8">
+      <c r="AV16" s="9">
         <v>21</v>
       </c>
-      <c r="AW16" s="8">
+      <c r="AW16" s="9">
         <v>21</v>
       </c>
-      <c r="AX16" s="8">
+      <c r="AX16" s="9">
         <v>21</v>
       </c>
-      <c r="AY16" s="8">
+      <c r="AY16" s="9">
         <v>21</v>
       </c>
-      <c r="AZ16" s="8">
+      <c r="AZ16" s="9">
         <v>21</v>
       </c>
-      <c r="BA16" s="8">
+      <c r="BA16" s="9">
         <v>22</v>
       </c>
-      <c r="BB16" s="8">
+      <c r="BB16" s="9">
         <v>22</v>
       </c>
-      <c r="BC16" s="8">
+      <c r="BC16" s="9">
         <v>22</v>
       </c>
-      <c r="BD16" s="8">
+      <c r="BD16" s="9">
         <v>22.5</v>
       </c>
-      <c r="BE16" s="8">
+      <c r="BE16" s="9">
         <v>22.5</v>
       </c>
-      <c r="BF16" s="8">
+      <c r="BF16" s="9">
         <v>22.5</v>
       </c>
-      <c r="BG16" s="8">
+      <c r="BG16" s="9">
         <v>22.5</v>
       </c>
-      <c r="BH16" s="8">
+      <c r="BH16" s="9">
         <v>22.5</v>
       </c>
-      <c r="BI16" s="8">
+      <c r="BI16" s="9">
         <v>24.5</v>
       </c>
-      <c r="BJ16" s="8">
+      <c r="BJ16" s="9">
         <v>24.5</v>
       </c>
-      <c r="BK16" s="8">
+      <c r="BK16" s="9">
         <v>25</v>
       </c>
-      <c r="BL16" s="8">
+      <c r="BL16" s="9">
         <v>25</v>
       </c>
-      <c r="BM16" s="8">
+      <c r="BM16" s="9">
         <v>25</v>
       </c>
-      <c r="BN16" s="8">
+      <c r="BN16" s="9">
         <v>25</v>
       </c>
-      <c r="BO16" s="8">
+      <c r="BO16" s="9">
         <v>24</v>
       </c>
-      <c r="BP16" s="8">
+      <c r="BP16" s="9">
         <v>24</v>
       </c>
-      <c r="BQ16" s="8">
+      <c r="BQ16" s="9">
         <v>24</v>
       </c>
-      <c r="BR16" s="8">
+      <c r="BR16" s="9">
         <v>24</v>
       </c>
-      <c r="BS16" s="8">
+      <c r="BS16" s="9">
         <v>24.5</v>
       </c>
-      <c r="BT16" s="8">
+      <c r="BT16" s="9">
         <v>24.5</v>
       </c>
-      <c r="BU16" s="8">
+      <c r="BU16" s="9">
         <v>24.5</v>
       </c>
-      <c r="BV16" s="8">
+      <c r="BV16" s="9">
         <v>24.5</v>
       </c>
-      <c r="BW16" s="8">
+      <c r="BW16" s="9">
         <v>24.5</v>
       </c>
-      <c r="BX16" s="8">
+      <c r="BX16" s="9">
         <v>24.5</v>
       </c>
-      <c r="BY16" s="8">
+      <c r="BY16" s="9">
         <v>24.5</v>
       </c>
-      <c r="BZ16" s="8">
+      <c r="BZ16" s="9">
         <v>24.5</v>
       </c>
-      <c r="CA16" s="8">
+      <c r="CA16" s="9">
         <v>24.5</v>
       </c>
-      <c r="CB16" s="8">
+      <c r="CB16" s="9">
         <v>24.5</v>
       </c>
-      <c r="CC16" s="8">
+      <c r="CC16" s="9">
         <v>24.5</v>
       </c>
-      <c r="CD16" s="8">
+      <c r="CD16" s="9">
         <v>24</v>
       </c>
-      <c r="CE16" s="8">
+      <c r="CE16" s="9">
         <v>24</v>
       </c>
-      <c r="CF16" s="8">
+      <c r="CF16" s="9">
         <v>24</v>
       </c>
-      <c r="CG16" s="8">
+      <c r="CG16" s="9">
         <v>24</v>
       </c>
-      <c r="CH16" s="8">
+      <c r="CH16" s="9">
         <v>24</v>
       </c>
-      <c r="CI16" s="8">
+      <c r="CI16" s="9">
         <v>24</v>
       </c>
-      <c r="CJ16" s="8">
+      <c r="CJ16" s="9">
         <v>24</v>
       </c>
-      <c r="CK16" s="8">
+      <c r="CK16" s="9">
         <v>24</v>
       </c>
-      <c r="CL16" s="8">
+      <c r="CL16" s="9">
         <v>24</v>
       </c>
-      <c r="CM16" s="8">
+      <c r="CM16" s="9">
         <v>24</v>
       </c>
-      <c r="CN16" s="8">
+      <c r="CN16" s="9">
         <v>24</v>
       </c>
-      <c r="CO16" s="8">
+      <c r="CO16" s="9">
         <v>24</v>
       </c>
-      <c r="CP16" s="8">
+      <c r="CP16" s="9">
         <v>24</v>
       </c>
-      <c r="CQ16" s="8">
+      <c r="CQ16" s="9">
         <v>24</v>
       </c>
-      <c r="CR16" s="8">
+      <c r="CR16" s="9">
         <v>24</v>
       </c>
-      <c r="CS16" s="8">
+      <c r="CS16" s="9">
         <v>24</v>
       </c>
-      <c r="CT16" s="8">
+      <c r="CT16" s="9">
         <v>24</v>
       </c>
-      <c r="CU16" s="8">
+      <c r="CU16" s="9">
         <v>24</v>
       </c>
-      <c r="CV16" s="8">
+      <c r="CV16" s="9">
         <v>24</v>
       </c>
-      <c r="CW16" s="8">
+      <c r="CW16" s="9">
         <v>24</v>
       </c>
-      <c r="CX16" s="8">
+      <c r="CX16" s="9">
         <v>24</v>
       </c>
-      <c r="CY16" s="8">
+      <c r="CY16" s="9">
         <v>24</v>
       </c>
-      <c r="CZ16" s="8">
+      <c r="CZ16" s="9">
         <v>24</v>
       </c>
-      <c r="DA16" s="8">
+      <c r="DA16" s="9">
         <v>24</v>
       </c>
-      <c r="DB16" s="8">
+      <c r="DB16" s="9">
         <v>24</v>
       </c>
-      <c r="DC16" s="8">
+      <c r="DC16" s="9">
         <v>24</v>
       </c>
-      <c r="DD16" s="8">
+      <c r="DD16" s="9">
         <v>24</v>
       </c>
-      <c r="DE16" s="8">
+      <c r="DE16" s="9">
         <v>24</v>
       </c>
-      <c r="DF16" s="8">
+      <c r="DF16" s="9">
         <v>24</v>
       </c>
-      <c r="DG16" s="8">
+      <c r="DG16" s="9">
         <v>24</v>
       </c>
-      <c r="DH16" s="8">
+      <c r="DH16" s="9">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
-      <c r="AK17" s="6"/>
-      <c r="AL17" s="6"/>
-      <c r="AM17" s="6"/>
-      <c r="AN17" s="6"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="6"/>
-      <c r="AQ17" s="6"/>
-      <c r="AR17" s="6"/>
-      <c r="AS17" s="6"/>
-      <c r="AT17" s="6"/>
-      <c r="AU17" s="6"/>
-      <c r="AV17" s="6"/>
-      <c r="AW17" s="6"/>
-      <c r="AX17" s="6"/>
-      <c r="AY17" s="6"/>
-      <c r="AZ17" s="6"/>
-      <c r="BA17" s="6"/>
-      <c r="BB17" s="6"/>
-      <c r="BC17" s="6"/>
-      <c r="BD17" s="6"/>
-      <c r="BE17" s="6"/>
-      <c r="BF17" s="6"/>
-      <c r="BG17" s="6"/>
-      <c r="BH17" s="6"/>
-      <c r="BI17" s="6"/>
-      <c r="BJ17" s="6"/>
-      <c r="BK17" s="6"/>
-      <c r="BL17" s="6"/>
-      <c r="BM17" s="6"/>
-      <c r="BN17" s="6"/>
-      <c r="BO17" s="6"/>
-      <c r="BP17" s="6"/>
-      <c r="BQ17" s="6"/>
-      <c r="BR17" s="6"/>
-      <c r="BS17" s="6"/>
-      <c r="BT17" s="6"/>
-      <c r="BU17" s="6"/>
-      <c r="BV17" s="6"/>
-      <c r="BW17" s="6"/>
-      <c r="BX17" s="6"/>
-      <c r="BY17" s="6"/>
-      <c r="BZ17" s="6"/>
-      <c r="CA17" s="6"/>
-      <c r="CB17" s="6"/>
-      <c r="CC17" s="6"/>
-      <c r="CD17" s="6"/>
-      <c r="CE17" s="6"/>
-      <c r="CF17" s="6"/>
-      <c r="CG17" s="6"/>
-      <c r="CH17" s="6"/>
-      <c r="CI17" s="6"/>
-      <c r="CJ17" s="6"/>
-      <c r="CK17" s="6"/>
-      <c r="CL17" s="6"/>
-      <c r="CM17" s="6"/>
-      <c r="CN17" s="6"/>
-      <c r="CO17" s="6"/>
-      <c r="CP17" s="6"/>
-      <c r="CQ17" s="6"/>
-      <c r="CR17" s="6"/>
-      <c r="CS17" s="6"/>
-      <c r="CT17" s="6"/>
-      <c r="CU17" s="6"/>
-      <c r="CV17" s="6"/>
-      <c r="CW17" s="6"/>
-      <c r="CX17" s="6"/>
-      <c r="CY17" s="6"/>
-      <c r="CZ17" s="6"/>
-      <c r="DA17" s="6"/>
-      <c r="DB17" s="6"/>
-      <c r="DC17" s="6"/>
-      <c r="DD17" s="6"/>
-      <c r="DE17" s="6"/>
-      <c r="DF17" s="6"/>
-      <c r="DG17" s="6"/>
-      <c r="DH17" s="6"/>
-    </row>
-    <row r="18" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="6"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="6"/>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="6"/>
-      <c r="AT18" s="6"/>
-      <c r="AU18" s="6"/>
-      <c r="AV18" s="6"/>
-      <c r="AW18" s="6"/>
-      <c r="AX18" s="6"/>
-      <c r="AY18" s="6"/>
-      <c r="AZ18" s="6"/>
-      <c r="BA18" s="6"/>
-      <c r="BB18" s="6"/>
-      <c r="BC18" s="6"/>
-      <c r="BD18" s="6"/>
-      <c r="BE18" s="6"/>
-      <c r="BF18" s="6"/>
-      <c r="BG18" s="6"/>
-      <c r="BH18" s="6"/>
-      <c r="BI18" s="6"/>
-      <c r="BJ18" s="6"/>
-      <c r="BK18" s="6"/>
-      <c r="BL18" s="6"/>
-      <c r="BM18" s="6"/>
-      <c r="BN18" s="6"/>
-      <c r="BO18" s="6"/>
-      <c r="BP18" s="6"/>
-      <c r="BQ18" s="6"/>
-      <c r="BR18" s="6"/>
-      <c r="BS18" s="6"/>
-      <c r="BT18" s="6"/>
-      <c r="BU18" s="6"/>
-      <c r="BV18" s="6"/>
-      <c r="BW18" s="6"/>
-      <c r="BX18" s="6"/>
-      <c r="BY18" s="6"/>
-      <c r="BZ18" s="6"/>
-      <c r="CA18" s="6"/>
-      <c r="CB18" s="6"/>
-      <c r="CC18" s="6"/>
-      <c r="CD18" s="6"/>
-      <c r="CE18" s="6"/>
-      <c r="CF18" s="6"/>
-      <c r="CG18" s="6"/>
-      <c r="CH18" s="6"/>
-      <c r="CI18" s="6"/>
-      <c r="CJ18" s="6"/>
-      <c r="CK18" s="6"/>
-      <c r="CL18" s="6"/>
-      <c r="CM18" s="6"/>
-      <c r="CN18" s="6"/>
-      <c r="CO18" s="6"/>
-      <c r="CP18" s="6"/>
-      <c r="CQ18" s="6"/>
-      <c r="CR18" s="6"/>
-      <c r="CS18" s="6"/>
-      <c r="CT18" s="6"/>
-      <c r="CU18" s="6"/>
-      <c r="CV18" s="6"/>
-      <c r="CW18" s="6"/>
-      <c r="CX18" s="6"/>
-      <c r="CY18" s="6"/>
-      <c r="CZ18" s="6"/>
-      <c r="DA18" s="6"/>
-      <c r="DB18" s="6"/>
-      <c r="DC18" s="6"/>
-      <c r="DD18" s="6"/>
-      <c r="DE18" s="6"/>
-      <c r="DF18" s="6"/>
-      <c r="DG18" s="6"/>
-      <c r="DH18" s="6"/>
-    </row>
-    <row r="19" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="6"/>
-      <c r="AK19" s="6"/>
-      <c r="AL19" s="6"/>
-      <c r="AM19" s="6"/>
-      <c r="AN19" s="6"/>
-      <c r="AO19" s="6"/>
-      <c r="AP19" s="6"/>
-      <c r="AQ19" s="6"/>
-      <c r="AR19" s="6"/>
-      <c r="AS19" s="6"/>
-      <c r="AT19" s="6"/>
-      <c r="AU19" s="6"/>
-      <c r="AV19" s="6"/>
-      <c r="AW19" s="6"/>
-      <c r="AX19" s="6"/>
-      <c r="AY19" s="6"/>
-      <c r="AZ19" s="6"/>
-      <c r="BA19" s="6"/>
-      <c r="BB19" s="6"/>
-      <c r="BC19" s="6"/>
-      <c r="BD19" s="6"/>
-      <c r="BE19" s="6"/>
-      <c r="BF19" s="6"/>
-      <c r="BG19" s="6"/>
-      <c r="BH19" s="6"/>
-      <c r="BI19" s="6"/>
-      <c r="BJ19" s="6"/>
-      <c r="BK19" s="6"/>
-      <c r="BL19" s="6"/>
-      <c r="BM19" s="6"/>
-      <c r="BN19" s="6"/>
-      <c r="BO19" s="6"/>
-      <c r="BP19" s="6"/>
-      <c r="BQ19" s="6"/>
-      <c r="BR19" s="6"/>
-      <c r="BS19" s="6"/>
-      <c r="BT19" s="6"/>
-      <c r="BU19" s="6"/>
-      <c r="BV19" s="6"/>
-      <c r="BW19" s="6"/>
-      <c r="BX19" s="6"/>
-      <c r="BY19" s="6"/>
-      <c r="BZ19" s="6"/>
-      <c r="CA19" s="6"/>
-      <c r="CB19" s="6"/>
-      <c r="CC19" s="6"/>
-      <c r="CD19" s="6"/>
-      <c r="CE19" s="6"/>
-      <c r="CF19" s="6"/>
-      <c r="CG19" s="6"/>
-      <c r="CH19" s="6"/>
-      <c r="CI19" s="6"/>
-      <c r="CJ19" s="6"/>
-      <c r="CK19" s="6"/>
-      <c r="CL19" s="6"/>
-      <c r="CM19" s="6"/>
-      <c r="CN19" s="6"/>
-      <c r="CO19" s="6"/>
-      <c r="CP19" s="6"/>
-      <c r="CQ19" s="6"/>
-      <c r="CR19" s="6"/>
-      <c r="CS19" s="6"/>
-      <c r="CT19" s="6"/>
-      <c r="CU19" s="6"/>
-      <c r="CV19" s="6"/>
-      <c r="CW19" s="6"/>
-      <c r="CX19" s="6"/>
-      <c r="CY19" s="6"/>
-      <c r="CZ19" s="6"/>
-      <c r="DA19" s="6"/>
-      <c r="DB19" s="6"/>
-      <c r="DC19" s="6"/>
-      <c r="DD19" s="6"/>
-      <c r="DE19" s="6"/>
-      <c r="DF19" s="6"/>
-      <c r="DG19" s="6"/>
-      <c r="DH19" s="6"/>
-    </row>
-    <row r="20" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="6"/>
-      <c r="AK20" s="6"/>
-      <c r="AL20" s="6"/>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="6"/>
-      <c r="AO20" s="6"/>
-      <c r="AP20" s="6"/>
-      <c r="AQ20" s="6"/>
-      <c r="AR20" s="6"/>
-      <c r="AS20" s="6"/>
-      <c r="AT20" s="6"/>
-      <c r="AU20" s="6"/>
-      <c r="AV20" s="6"/>
-      <c r="AW20" s="6"/>
-      <c r="AX20" s="6"/>
-      <c r="AY20" s="6"/>
-      <c r="AZ20" s="6"/>
-      <c r="BA20" s="6"/>
-      <c r="BB20" s="6"/>
-      <c r="BC20" s="6"/>
-      <c r="BD20" s="6"/>
-      <c r="BE20" s="6"/>
-      <c r="BF20" s="6"/>
-      <c r="BG20" s="6"/>
-      <c r="BH20" s="6"/>
-      <c r="BI20" s="6"/>
-      <c r="BJ20" s="6"/>
-      <c r="BK20" s="6"/>
-      <c r="BL20" s="6"/>
-      <c r="BM20" s="6"/>
-      <c r="BN20" s="6"/>
-      <c r="BO20" s="6"/>
-      <c r="BP20" s="6"/>
-      <c r="BQ20" s="6"/>
-      <c r="BR20" s="6"/>
-      <c r="BS20" s="6"/>
-      <c r="BT20" s="6"/>
-      <c r="BU20" s="6"/>
-      <c r="BV20" s="6"/>
-      <c r="BW20" s="6"/>
-      <c r="BX20" s="6"/>
-      <c r="BY20" s="6"/>
-      <c r="BZ20" s="6"/>
-      <c r="CA20" s="6"/>
-      <c r="CB20" s="6"/>
-      <c r="CC20" s="6"/>
-      <c r="CD20" s="6"/>
-      <c r="CE20" s="6"/>
-      <c r="CF20" s="6"/>
-      <c r="CG20" s="6"/>
-      <c r="CH20" s="6"/>
-      <c r="CI20" s="6"/>
-      <c r="CJ20" s="6"/>
-      <c r="CK20" s="6"/>
-      <c r="CL20" s="6"/>
-      <c r="CM20" s="6"/>
-      <c r="CN20" s="6"/>
-      <c r="CO20" s="6"/>
-      <c r="CP20" s="6"/>
-      <c r="CQ20" s="6"/>
-      <c r="CR20" s="6"/>
-      <c r="CS20" s="6"/>
-      <c r="CT20" s="6"/>
-      <c r="CU20" s="6"/>
-      <c r="CV20" s="6"/>
-      <c r="CW20" s="6"/>
-      <c r="CX20" s="6"/>
-      <c r="CY20" s="6"/>
-      <c r="CZ20" s="6"/>
-      <c r="DA20" s="6"/>
-      <c r="DB20" s="6"/>
-      <c r="DC20" s="6"/>
-      <c r="DD20" s="6"/>
-      <c r="DE20" s="6"/>
-      <c r="DF20" s="6"/>
-      <c r="DG20" s="6"/>
-      <c r="DH20" s="6"/>
-    </row>
-    <row r="21" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="6"/>
-      <c r="AK21" s="6"/>
-      <c r="AL21" s="6"/>
-      <c r="AM21" s="6"/>
-      <c r="AN21" s="6"/>
-      <c r="AO21" s="6"/>
-      <c r="AP21" s="6"/>
-      <c r="AQ21" s="6"/>
-      <c r="AR21" s="6"/>
-      <c r="AS21" s="6"/>
-      <c r="AT21" s="6"/>
-      <c r="AU21" s="6"/>
-      <c r="AV21" s="6"/>
-      <c r="AW21" s="6"/>
-      <c r="AX21" s="6"/>
-      <c r="AY21" s="6"/>
-      <c r="AZ21" s="6"/>
-      <c r="BA21" s="6"/>
-      <c r="BB21" s="6"/>
-      <c r="BC21" s="6"/>
-      <c r="BD21" s="6"/>
-      <c r="BE21" s="6"/>
-      <c r="BF21" s="6"/>
-      <c r="BG21" s="6"/>
-      <c r="BH21" s="6"/>
-      <c r="BI21" s="6"/>
-      <c r="BJ21" s="6"/>
-      <c r="BK21" s="6"/>
-      <c r="BL21" s="6"/>
-      <c r="BM21" s="6"/>
-      <c r="BN21" s="6"/>
-      <c r="BO21" s="6"/>
-      <c r="BP21" s="6"/>
-      <c r="BQ21" s="6"/>
-      <c r="BR21" s="6"/>
-      <c r="BS21" s="6"/>
-      <c r="BT21" s="6"/>
-      <c r="BU21" s="6"/>
-      <c r="BV21" s="6"/>
-      <c r="BW21" s="6"/>
-      <c r="BX21" s="6"/>
-      <c r="BY21" s="6"/>
-      <c r="BZ21" s="6"/>
-      <c r="CA21" s="6"/>
-      <c r="CB21" s="6"/>
-      <c r="CC21" s="6"/>
-      <c r="CD21" s="6"/>
-      <c r="CE21" s="6"/>
-      <c r="CF21" s="6"/>
-      <c r="CG21" s="6"/>
-      <c r="CH21" s="6"/>
-      <c r="CI21" s="6"/>
-      <c r="CJ21" s="6"/>
-      <c r="CK21" s="6"/>
-      <c r="CL21" s="6"/>
-      <c r="CM21" s="6"/>
-      <c r="CN21" s="6"/>
-      <c r="CO21" s="6"/>
-      <c r="CP21" s="6"/>
-      <c r="CQ21" s="6"/>
-      <c r="CR21" s="6"/>
-      <c r="CS21" s="6"/>
-      <c r="CT21" s="6"/>
-      <c r="CU21" s="6"/>
-      <c r="CV21" s="6"/>
-      <c r="CW21" s="6"/>
-      <c r="CX21" s="6"/>
-      <c r="CY21" s="6"/>
-      <c r="CZ21" s="6"/>
-      <c r="DA21" s="6"/>
-      <c r="DB21" s="6"/>
-      <c r="DC21" s="6"/>
-      <c r="DD21" s="6"/>
-      <c r="DE21" s="6"/>
-      <c r="DF21" s="6"/>
-      <c r="DG21" s="6"/>
-      <c r="DH21" s="6"/>
-    </row>
-    <row r="22" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="6"/>
-      <c r="AK22" s="6"/>
-      <c r="AL22" s="6"/>
-      <c r="AM22" s="6"/>
-      <c r="AN22" s="6"/>
-      <c r="AO22" s="6"/>
-      <c r="AP22" s="6"/>
-      <c r="AQ22" s="6"/>
-      <c r="AR22" s="6"/>
-      <c r="AS22" s="6"/>
-      <c r="AT22" s="6"/>
-      <c r="AU22" s="6"/>
-      <c r="AV22" s="6"/>
-      <c r="AW22" s="6"/>
-      <c r="AX22" s="6"/>
-      <c r="AY22" s="6"/>
-      <c r="AZ22" s="6"/>
-      <c r="BA22" s="6"/>
-      <c r="BB22" s="6"/>
-      <c r="BC22" s="6"/>
-      <c r="BD22" s="6"/>
-      <c r="BE22" s="6"/>
-      <c r="BF22" s="6"/>
-      <c r="BG22" s="6"/>
-      <c r="BH22" s="6"/>
-      <c r="BI22" s="6"/>
-      <c r="BJ22" s="6"/>
-      <c r="BK22" s="6"/>
-      <c r="BL22" s="6"/>
-      <c r="BM22" s="6"/>
-      <c r="BN22" s="6"/>
-      <c r="BO22" s="6"/>
-      <c r="BP22" s="6"/>
-      <c r="BQ22" s="6"/>
-      <c r="BR22" s="6"/>
-      <c r="BS22" s="6"/>
-      <c r="BT22" s="6"/>
-      <c r="BU22" s="6"/>
-      <c r="BV22" s="6"/>
-      <c r="BW22" s="6"/>
-      <c r="BX22" s="6"/>
-      <c r="BY22" s="6"/>
-      <c r="BZ22" s="6"/>
-      <c r="CA22" s="6"/>
-      <c r="CB22" s="6"/>
-      <c r="CC22" s="6"/>
-      <c r="CD22" s="6"/>
-      <c r="CE22" s="6"/>
-      <c r="CF22" s="6"/>
-      <c r="CG22" s="6"/>
-      <c r="CH22" s="6"/>
-      <c r="CI22" s="6"/>
-      <c r="CJ22" s="6"/>
-      <c r="CK22" s="6"/>
-      <c r="CL22" s="6"/>
-      <c r="CM22" s="6"/>
-      <c r="CN22" s="6"/>
-      <c r="CO22" s="6"/>
-      <c r="CP22" s="6"/>
-      <c r="CQ22" s="6"/>
-      <c r="CR22" s="6"/>
-      <c r="CS22" s="6"/>
-      <c r="CT22" s="6"/>
-      <c r="CU22" s="6"/>
-      <c r="CV22" s="6"/>
-      <c r="CW22" s="6"/>
-      <c r="CX22" s="6"/>
-      <c r="CY22" s="6"/>
-      <c r="CZ22" s="6"/>
-      <c r="DA22" s="6"/>
-      <c r="DB22" s="6"/>
-      <c r="DC22" s="6"/>
-      <c r="DD22" s="6"/>
-      <c r="DE22" s="6"/>
-      <c r="DF22" s="6"/>
-      <c r="DG22" s="6"/>
-      <c r="DH22" s="6"/>
-    </row>
-    <row r="23" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="12"/>
-      <c r="AJ23" s="12"/>
-      <c r="AK23" s="12"/>
-      <c r="AL23" s="12"/>
-      <c r="AM23" s="12"/>
-      <c r="AN23" s="12"/>
-      <c r="AO23" s="12"/>
-      <c r="AP23" s="12"/>
-      <c r="AQ23" s="12"/>
-      <c r="AR23" s="12"/>
-      <c r="AS23" s="12"/>
-      <c r="AT23" s="12"/>
-      <c r="AU23" s="12"/>
-      <c r="AV23" s="12"/>
-      <c r="AW23" s="12"/>
-      <c r="AX23" s="12"/>
-      <c r="AY23" s="12"/>
-      <c r="AZ23" s="12"/>
-      <c r="BA23" s="12"/>
-      <c r="BB23" s="12"/>
-      <c r="BC23" s="12"/>
-      <c r="BD23" s="12"/>
-      <c r="BE23" s="12"/>
-      <c r="BF23" s="12"/>
-      <c r="BG23" s="12"/>
-      <c r="BH23" s="12"/>
-      <c r="BI23" s="12"/>
-      <c r="BJ23" s="12"/>
-      <c r="BK23" s="12"/>
-      <c r="BL23" s="12"/>
-      <c r="BM23" s="12"/>
-      <c r="BN23" s="12"/>
-      <c r="BO23" s="12"/>
-      <c r="BP23" s="12"/>
-      <c r="BQ23" s="12"/>
-      <c r="BR23" s="12"/>
-      <c r="BS23" s="12"/>
-      <c r="BT23" s="12"/>
-      <c r="BU23" s="12"/>
-      <c r="BV23" s="12"/>
-      <c r="BW23" s="12"/>
-      <c r="BX23" s="12"/>
-      <c r="BY23" s="12"/>
-      <c r="BZ23" s="12"/>
-      <c r="CA23" s="12"/>
-      <c r="CB23" s="12"/>
-      <c r="CC23" s="12"/>
-      <c r="CD23" s="12"/>
-      <c r="CE23" s="12"/>
-      <c r="CF23" s="12"/>
-      <c r="CG23" s="12"/>
-      <c r="CH23" s="12"/>
-      <c r="CI23" s="12"/>
-      <c r="CJ23" s="12"/>
-      <c r="CK23" s="12"/>
-      <c r="CL23" s="12"/>
-      <c r="CM23" s="12"/>
-      <c r="CN23" s="12"/>
-      <c r="CO23" s="12"/>
-      <c r="CP23" s="12"/>
-      <c r="CQ23" s="12"/>
-      <c r="CR23" s="12"/>
-      <c r="CS23" s="12"/>
-      <c r="CT23" s="12"/>
-      <c r="CU23" s="12"/>
-      <c r="CV23" s="12"/>
-      <c r="CW23" s="12"/>
-      <c r="CX23" s="12"/>
-      <c r="CY23" s="12"/>
-      <c r="CZ23" s="12"/>
-      <c r="DA23" s="12"/>
-      <c r="DB23" s="12"/>
-      <c r="DC23" s="12"/>
-      <c r="DD23" s="12"/>
-      <c r="DE23" s="12"/>
-      <c r="DF23" s="12"/>
-      <c r="DG23" s="12"/>
-      <c r="DH23" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A23:DH23"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>